--- a/6th_Best_Product/Reference.xlsx
+++ b/6th_Best_Product/Reference.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1177">
   <si>
     <t>상품명</t>
   </si>
@@ -1228,61 +1228,2323 @@
     <t>차량용청소기 / 무선 / 흡입력: 15,000Pa / 최대출력: 135W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 45분 / 배터리 잔량표시 / 소음: 75dB / 충전방식: USB C타입 / 충전시간: 3~5시간 / 색상: 블랙, 실버 / 크기: 296x56.5mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 16,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 32분 / 소음: 85dB 미만 / 충전방식: USB C타입 / 색상: 블랙, 화이트 / 크기: 56x265mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 16,800Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 30분 / 소음: 73.8dB / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 색상: 블랙, 화이트 / 크기: 369x72mm / 무게: 560g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 150AW / 흡입력: 24000Pa / [배터리] 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 실버그레이 / 무게: 1.6kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 151AW / [배터리] 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 먼지통용량: 0.5L / 색상: 레드 / 무게: 2.5kg / 크기(가로x세로x깊이): 256x1241x250mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 9~30분 / 버튼 잠금 장치 / 2단 세기 조절 / 크기: 55x267mm / 무게: 500g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미스티화이트 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 35000Pa / [배터리] 충전시간: 4~5시간 / 사용시간(개당): 40분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 60W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전시간: 2시간 / 충전방식: USB C타입 / 크기: 142x172mm / 무게: 280g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미드나잇블루 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 20분 / 충전방식: USB C타입 / 배터리용량: 6,000mAh 크기: 241x71x50mm / 무게: 550g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 최대출력: 135W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 무게: 410g / 크기: 252x55x55mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 140W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 50분 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 17분 / 충전방식: 시거잭, 220V / BLCD모터 / 충전시간: 5시간30분 / 크기: 93x439mm / 무게: 505g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 일체형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미드나잇블루 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 색상: 아이언그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 150AW / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 헤파필터 / [기능] 먼지감지센서 / 디스플레이표시창 / [구성] 레이저슬림플러피 / 다이렉트드라이브 / 헤어스크류 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.35L / 색상: 옐로우/아이언/니켈 / 무게: 2.2kg / 크기(가로x세로x깊이): 250x1095x251mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 75W / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 40분 / 충전시간: 3시간 / 배터리용량: 6,000mAh / 크기: 223.5x84x65mm / 무게: 378g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 75W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 싸이클론 / 사용시간: 20~28분 / 충전시간: 4시간 / 무게: 580g / 색상: 그레이, 화이트, 블랙</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5000Pa / 헤파필터 / 사용시간: 20분 / 크기: 280x72mm / 무게: 780g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미스티화이트 / 무게: 2.5kg / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 45분 / [성능] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 데님블루 / 무게: 2.65kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,500Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전시간: 2.5시간 / 크기: 73x73x305mm / 무게 : 703g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 카밍베이지 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미스티화이트 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 140AW / 흡입력: 22000Pa / [배터리] 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 4시간 / 사용시간(개당): 3시간 / [기능] 물분사 / 각도조절 / 셀프스탠딩 / [부가] 먼지통용량: 0.24L / 색상: 화이트 / 무게: 1.99kg / 자동세척탈수 / 크기(가로x세로x깊이): 360x1160x170mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,200Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 솔브러쉬 / 사용시간: 20분 / 크기: 235x65x65mm / 무게: 595g / 충전시간: 4시간 / 먼지통용량: 120ml</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 35분 / [성능] 4단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / [부가] 먼지통용량: 0.42L / 색상: 아이언그레이 / 무게: 2.5kg / 크기(가로x세로x깊이): 299x689x165mm</t>
+  </si>
+  <si>
     <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: ~7,000Pa / 충전방식: USB C타입 / 배터리용량: 2,500mAH / 크기: 315x54x54mm / 무게: 570g / 압력설정 / 최대압력: 120psi</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 16,800Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 크기: 369x72mm / 무게: 560g / 충전방식: USB C타입 / 배터리용량: 2,000mAh</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 최대 9,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 최대 25분 / 충전시간: 약3.5시간 / 크기: 334x80x80mm / 무게: 625g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 2중필터 / 헤파필터 / 추가노즐: 연장호스 / 사용시간: 20분 / 크기: 71x298mm / 무게: 570g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 40분 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 틸민트 / 무게: 2.57kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000~15,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 18~50분 / 충전방식: USB C타입 / 배터리용량: 7,500mAh / 크기: 294x55x55mm / 무게: 500g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 39000Pa / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 48분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 폴라나이트그레이, 미드나이트블랙 / 무게: 2.4kg / UV살균 / 크기(가로x세로x깊이): 255x1150x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 45분 / [성능] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 2.65kg / 크기(가로x세로x깊이): 386x692x146mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 헤파필터 / 추가노즐: 솔브러쉬 / 크기: 70x290mm / 무게: 560g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 10,000Pa / 최대출력: 180W / 3중필터 / 추가노즐: 틈새, 솔브러쉬 / 베어툴사양 / 2단 속도 조절 / 플렉시블 튜브 / 크기: 150x182x218mm / 무게: 1,400g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 7,000Pa / 최대출력: 90W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전방식: USB C타입 / 충전시간: 2시간30분 / 크기: 73x76x336mm / 무게: 700g</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 충전시간: 3시간30분 / 사용시간(개당): 28분 / [기능] 청소모드: UV살균, 흡입 / 진동수: 98,400회(분당) / 인체공학적디자인 / BLDC모터 / 흡입력: 15000Pa / 헤파필터 / 4단계여과 / [부가] 먼지통용량: 0.16L / 색상: 화이트 / 무게: 1.42kg / 크기(가로x세로x깊이): 612.6x141.7x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 240AW / [배터리] 분리형 (1개) / 충전시간: 4시간30분 / 사용시간(개당): 1시간 / [성능] 헤파필터 / [기능] 먼지감지센서 / 디스플레이표시창 / [구성] 레이저슬림플러피 / 하이토크 / 헤어스크류 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 업탑어댑터 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 옐로우/아이언/니켈 / 무게: 3kg / 크기(가로x세로x깊이): 250x1086x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 15,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 15~28분 / 충전시간: 4~5시간 / 색상: 블랙, 스카이블루, 화이트 / 크기: 415mm / 무게: 520g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 펫 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 이브닝코랄 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150W / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 50분 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 틈새 / [부가] 먼지통용량: 0.3L / 색상: 페블그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1143x194mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 15,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 12분(고속),25분(저속) / 배터리 용량: 2000mAh  / 충전시간: 3.5 시간 / 크기: 54x330mm / 무게: 532g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / [기능] 셀프스탠딩 / [구성] 바닥 / 틈새 / [부가] 먼지통용량: 0.25L / 색상: 뉴트럴그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 250x1130x225mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 53분 / [성능] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 충전시간: 4~5시간 / 사용시간(개당): 50분 / [부가] 무게: 0.86kg / 생활방수 / 브러쉬: 원형, 평면, 틈새</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 유무선 / 12V / 흡입력: 4,800Pa / 최대출력: 120W / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 충전방식: 시거잭, 220V / 충전시간: 3~4시간 / 크기: 260x200x80mm / 무게: 880g</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 (분리형) / 충전시간: 2시간30분 / 사용시간(개당): 30분 / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 블랙 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 최대출력: 120W</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 충전시간: 4시간30분 / 사용시간(개당): 30분 / [기능] 각도조절 / 거치대 / 걸레자동세척 / [부가] 무게: 3.26kg / 패드: 극세사 / 크기(가로x세로x깊이): 274x1130x174mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 20000Pa / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 카펫 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 화이트+오렌지 / 무게: 1.45kg / 크기(가로x세로): 227x1227mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 30000Pa / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 38분 / [성능] BLDC모터 / 헤파필터 / 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.36L / 무게: 1.25kg / 크기(가로x세로x깊이): 245x1040x212mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 12분(고속),25분(저속) / 리튬이온배터리 / 색상: 바닐라화이트, 메탈그레이 / 크기: 56x330mm / 무게: 540g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 12V / 흡입력: 3,000~3,500Pa / 최대출력: 100W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 20분 / 코드길이: 3m / 타이어 압력 측정 / 크기: 360x155x135mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 12V / 흡입력: 5,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 코드길이: 5m / 크기: 400x115x110mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 타공/분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 블랙+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6500Pa / 추가노즐: 솔브러쉬, 연장호스 / 사용시간: 30분 / 무게 : 1,040g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 12,000Pa / 최대출력: 120W / 2중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 30분 / 충전시간: 2시간30분 / 충전방식: USB C타입 / 크기: 73x76x336mm / 무게: 610g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 150W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 색상 : 핑크, 브라운, 그레이, 화이트 / 크기: 191x111x65mm / 무게: 650g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
     <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 딥그레이/블랙 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
   </si>
   <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 120W / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 크기: 164x147x55mm / 무게: 350g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 유무선 / 12V / 흡입력: 5,000Pa / 최대출력: 120W / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 30분 / 코드길이: 4.5m / 색상: 네이비, 블랙 / 크기: 375x84x86mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 200W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 50분 / [성능] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.8kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 60W / [배터리] 충전시간: 8시간 / 사용시간(개당): 20분 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.3kg / 크기(가로x세로x깊이): 144x387x136mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 100AW / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 40분 / [성능] 5단계여과 / [기능] 디스플레이표시창 / [구성] 슬림소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 먼지통용량: 0.3L / 무게: 1.9kg / 크기(가로x세로x깊이): 250x1100x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 240AW / [배터리] 분리형 (1개) / 충전시간: 4시간30분 / 사용시간(개당): 1시간 / [성능] 헤파필터 / [기능] 먼지감지센서 / 디스플레이표시창 / [구성] 레이저슬림플러피 / 하이토크 / 헤어스크류 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 옐로우/아이언/니켈 / 무게: 3kg / 크기(가로x세로x깊이): 250x1086x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150W / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 50분 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 물걸레 / 틈새 / [부가] 먼지통용량: 0.3L / 색상: 미스티화이트 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1143x194mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 12000Pa / [배터리] 충전시간: 5시간 / 사용시간(개당): 40분 / [성능] 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.25kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 충전시간: 4시간 / 사용시간(개당): 2시간 / [부가] 무게: 1.1kg / 브러쉬: 기본솔, 돔솔, 코너형솔, 화장실변기용 / 크기(가로x세로x깊이): 70x1100x70mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,000Pa / 최대출력: 60W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 20분 / 충전시간: 3시간 / 크기: 59x240mm / 무게: 503g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5200Pa / 추가노즐: 솔브러쉬, 연장호스 / 사용시간: 22분 / 크기: 277x72mm / 무게: 560g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 8시간 / 사용시간(개당): 10분 / [부가] 무게: 0.76kg / 크기(가로x세로x깊이): 103x317x174mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 8시간 / 사용시간(개당): 12분 / [기능] 셀프스탠딩 / [부가] 색상: 에어본+내츄럴그레이 / 무게: 1kg / 크기(가로x세로x깊이): 342x265x119mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 사용시간(개당): 35분 / [기능] 각도조절 / 거치대 / 걸레자동세척 / [부가] 물통용량: 0.85L, 오수통 0.62L / 무게: 5.2kg / 음성알림 / 크기(가로x세로x깊이): 270x1112x191mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱+핸디형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 4~6시간 / 사용시간(개당): 35분 / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / [부가] 물통용량: 0.2L / 패드: 극세사(벨크로형) / 크기(가로x세로): 320x1630mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 53분 / [성능] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 2,000Pa / 최대출력: 35W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전방식: USB C타입 / 색상: 그레이, 그린, 블루, 블랙 / 충전시간: 4시간 / 무게: 366g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 80W / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 30분 / 배터리용량: 2,000mAh / 색상: 블랙, 화이트 / 크기: 245mmx70mm / 무게: 430g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 10,000Pa / 스테인리스 필터 / LED라이트 / 사용시간: 15~30분 / 충전방식: USB C타입 / 배터리용량: 2,500mAH / 크기: 315x55mm / 무게: 500g / 압력설정 / 최대압력: 150psi / 에어배출량(분당): 10L</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 150W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 40분 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 틸바이올렛 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전시간: 3시간 / 크기: 65x370mm / 무게: 400g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 최대출력: 42W / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 15분 / 먼지통용량: 0.5L / 용량: 1500mAh / 크기: 164x147x54mm / 무게: 330g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 150AW / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 헤파필터 / [기능] 먼지감지센서 / 디스플레이표시창 / [구성] 레이저슬림플러피 / 다이렉트드라이브 / 헤어스크류 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 업탑어댑터 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.35L / 색상: 옐로우/아이언/니켈 / 무게: 2.2kg / 크기(가로x세로x깊이): 250x1095x251mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 100W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 10~15분 / 충전방식: USB C타입 / 배터리용량: 4,000mAh / 크기: 264x72mm / 무게: 427g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 추가노즐: 솔브러쉬 / 크기: 165x80x32mm / 무게: 125g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 최대출력: 60W / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전시간: 3시간 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 크기: 340x88x77mm / 무게: 500g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 페블그레이 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 타공/분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 블랙+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 120AW / 흡입력: 20000Pa / [배터리] 충전시간: 3시간30분 / 사용시간(개당): 60분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.5kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 최대출력: 70W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 12~20분 / 크기: 73.4x301.7mm / 무게: 606g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 35AW / [배터리] 충전시간: 4시간 / 사용시간(개당): 12분 / [성능] 3단계여과 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 1.38kg / 피벗노즐 / 크기(가로x세로x깊이): 140x270x170mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 (분리형) / 충전시간: 4시간 / 사용시간(개당): 30분 / [기능] LED라이트 / 가구손상방지 / 각도조절 / 셀프스탠딩 / [부가] 색상: 블랙 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x860x256mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,200Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 충전방식: USB C타입 / 크기: 235x65x65mm / 무게: 595g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 48분 / [성능] 헤파필터 / 4단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 타이탄블루 / 무게: 3kg / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
     <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 42W / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 15분 / 충전시간: 2시간 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 크기: 150x147x55mm / 무게: 300g</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 35000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 50분 / [성능] 듀얼헤파필터 / 5단계여과 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 2.5kg / 크기(가로x세로x깊이): 241x1144x211mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 사용시간(개당): 40분 / [기능] 물분사 / LED라이트 / 셀프스탠딩 / [부가] 무게: 2kg / 패드: 극세사(벨트로형) / 크기(가로x세로): 350x1150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 모닝블루 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 185AW / 흡입력: 27000Pa / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 1시간30분 / [성능] 5단계여과 / [기능] 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 물통용량: 0.25L / 색상: 블랙 / 무게: 1.65kg / 크기(가로x세로): 200x1226mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 틸실버 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 17000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 30분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 침구 / 펫 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 2kg / 크기(가로x세로x깊이): 274x1150x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 티탄+그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 5시간 / 사용시간(개당): 15분 / [구성] 틈새 / 거치대 / [부가] 색상: 실버 / 무게: 0.8kg / 크기(가로x세로x깊이): 425x95x90mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 16,800Pa / 최대출력: 120W / 2중필터 / 사용시간: 30분 / 충전방식: USB C타입 / 색상: 블랙, 화이트 / 크기: 369x72mm / 무게: 560g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 6시간 / 사용시간(개당): 30분 / [기능] 프리볼트 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.13L / 색상: 화이트, 블랙 / 무게: 3.1kg / 크기(가로x세로x깊이): 300x1240x165mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,400Pa / 최대출력: 50W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 18분 / 충전시간: 3시간 / 대용량리튬이온배터리 / 크기: 275x72x71mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 추가노즐: 틈새 / 사용시간: 15분 / 크기:80x80x340mm / 무게: 630g / 배터리: 2,000mAh</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 26000Pa / [배터리] 충전시간: 4~5시간 / 사용시간(개당): 40분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 48분 / [성능] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 타이탄블루 / 무게: 3.01kg / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 (분리형) / 충전시간: 2시간30분 / 사용시간(개당): 30분 / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / 프리볼트 / [부가] 색상: 핑크, 그레이 / 무게: 3.7kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1020x205mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 4시간 / [성능] 2단계여과 / [기능] LED라이트 / 배터리잔량표시 / [부가] 색상: 스페이스틸 / 무게: 4.6kg / 크기(가로x세로x깊이): 263x1070x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 48분 / [성능] 4단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 소프트샌드 / 무게: 3.6kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,200Pa / 최대출력: 80W / 2중필터 / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 23분 / 충전시간: 3시간 / 색상: 레드, 블랙 / 크기: 69.5mmx57.5mmx286mm / 무게: 485g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,500Pa / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 25분 / 크기: 55.5x55.5x26mm / 무게: 395g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / [배터리] 충전시간: 2시간30분 / 사용시간(개당): 40분 / [성능] BLDC모터 / 헤파필터 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 물걸레 / 틈새 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 410x805x165mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 우디그린 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 53분 / [성능] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 마호가니브론즈 / 무게: 2.89kg / 크기(가로x세로x깊이): 256x1097x155mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 12000Pa / [배터리] 충전시간: 5시간 / 사용시간(개당): 40분 / [성능] 4단계여과 / LED라이트 / 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 퍼플 / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 30분 / DC모터 / [기능] 배터리잔량표시 / 걸레자동세척 / [부가] 물통용량: 0.9L / 색상: 화이트 / 무게: 4.65kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 48분 / [성능] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 마호가니브론즈 / 무게: 3.36kg / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [기능] 프리볼트 / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 색상: 블루, 코퍼, 블랙 / 무게: 2.5kg / 크기(가로x세로x깊이): 250x1241x256mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 70W / 헤파필터 / 추가노즐: 솔브러쉬 / 사용시간: 18분 / 색상: 그린, 블랙, 화이트 / 60ml 먼지통 / 배터리 표시등</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 6시간30분 / 사용시간(개당): 15분 / [기능] 프리볼트 / [구성] 틈새 / [부가] 먼지통용량: 0.4L / 물통용량: 0.1L / 색상: 화이트 / 무게: 1kg / 건습식 / 크기(가로x세로x깊이): 137x405x144mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 롤러식 / 무선형 / 충전시간: 2시간 / 사용시간(개당): 25분 / [기능] 물분사 / 각도조절 / 거치대 / 걸레자동세척 / [부가] 물통용량: 0.4L / 색상: 화이트 / 무게: 2.5kg / 크기(가로x세로x깊이): 304x1200x250mm</t>
+  </si>
+  <si>
+    <t>업소용청소기 / 고압세척기 / 무선형 / [기능] BLDC모터 / 충전시간: 1시간15분 / 사용시간(개당): 35분 / 작동압력: 25bar / [부가] 색상: 오렌지 / 무게: 2.5kg / 배터리잔량표시 / 과열방지 / 브러쉬: 회오리노즐, 하부세척커넥터, 호스</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 30분 / [기능] 물분사 / 걸레자동세척 / [부가] 물통용량: 0.5L / 무게: 3kg</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 3시간 / 사용시간(개당): 1시간 / 물분사 / LED라이트 / 셀프스탠딩 / 걸레자동세척 / [부가] 물통용량: 0.3L / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 205x1260x360mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 40분 / [기능] 물분사 / 각도조절 / 셀프스탠딩 / [부가] 색상: 블루 / 무게: 3.9 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 420x1150x190mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 필터 / 무선 / 흡입력: 2,700Pa / 최대출력: 45W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 25분 / 충전방식: USB타입 / 충전시간: 3.5시간 / 크기: 83x83x293mm / 무게: 660g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 50분 / [성능] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 소프트샌드 / 무게: 2.8kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 25000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 35분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [기능] 먼지감지센서 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 그레이화이트 / 무게: 1.3kg / 크기(가로x세로x깊이): 330x1213x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 150W / [배터리] 충전시간: 5~6시간 / 사용시간(개당): 20분 / [성능] 헤파필터 / 3단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.3kg / 크기(가로x세로x깊이): 230x1120x300mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / [배터리] 분리형 (1개) / 충전시간: 1시간38분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 5단계여과 / [기능] 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 업탑어댑터 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 그라나이트그레이 / 무게: 2.88kg / 크기(가로x세로x깊이): 260x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,700Pa / 최대출력: 45W / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 20분 / 크기: 150x147x55mm / 무게: 400g</t>
+  </si>
+  <si>
     <t>차량용청소기 / 유무선 / 흡입력: 6,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 25분 / 코드길이: 3m / 충전방식: USB, 어댑터 / 충전시간: 3시간 / 색상: 블랙, 화이트 / 크기: 370x65mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 색상: 블라썸핑크 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>진공청소기 / 무선형 / 충전시간: 3~5시간 / 사용시간(개당): 50분 / [성능] 헤파필터 / 먼지통 / 먼지통용량: 1.2L / [구성] 브러쉬: 플로어 / 보조브러쉬: 틈새, 솔형 / [부가] 무게: 4.1kg / 크기(가로x세로x깊이): 376x292x259mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 우디그린 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 25W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 35분 / [성능] 헤파필터 / 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 1.9kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 155AW / [배터리] 충전시간: 5시간 / 사용시간(개당): 40분 / [구성] 소프트롤러 / 다이렉트드라이브 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.58kg / 크기(가로x세로x깊이): 250x1244x224mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 10시간 / 사용시간(개당): 10~15분 / 헤파필터 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 색상: 블랙+오렌지 / 무게: 0.8kg / 크기(가로x세로x깊이): 145x440x115mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 카밍베이지 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 10~17분 / 배터리용량: 1,950mAH / 충전시간: 4~5시간 / 소음: 70dB / 무게: 600g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 8000Pa / [배터리] 충전시간: 4시간 / 사용시간(개당): 28분 / [성능] 헤파필터 / [기능] 프리볼트 / [구성] 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.15L / 색상: 아이언그레이, 엣지블랙, 스톤화이트 / 무게: 0.58kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,800Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 15분 / 충전방식: USB C타입 / 배터리: 2,000mAh / 크기: 70mmx320mm / 무게: 576g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 55분 / [성능] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>업소용청소기 / 고압세척기 / 무선형 / [기능] 사용시간(개당): 40분 / 작동압력: 30bar / [부가] 색상: 블랙 / 크기(가로x세로): 350x200mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 어댑터 / 가정용 충전기</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 3시간30분 / 사용시간(개당): 50분 / [성능] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 그라나이트그레이 / 무게: 2.7kg / 크기(가로x세로x깊이): 234x1056x163mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 충전시간: 3시간 / 사용시간(개당): 1시간20분 / [기능] 디스플레이표시창 / [부가] 색상: 화이트 / 무게: 0.77kg / 브러쉬: 일반평자, 틈새, 넓은평자 / 크기(가로x세로x깊이): 275x85x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 6000Pa / [배터리] 충전시간: 4시간 / 사용시간(개당): 20분 / [성능] DC모터 / 헤파필터 / 3단계여과 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.9L / 색상: 화이트 / 무게: 0.9kg / 크기(가로x세로x깊이): 130x1130x70mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 1시간40분 / [기능] 배터리잔량표시 / 프리볼트 / [부가] 색상: 화이트 / 무게: 0.9kg / 방수 / 각도조절 / 크기(가로x세로x깊이): 120x1140x78mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [부가] 색상: 화이트, 그레이 / 무게: 0.192kg / 브러쉬: 브러쉬, 스폰지, 캐시미어커버 / 크기(가로x세로x깊이): 66x193.4x78.4mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 140W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 40분 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 사용시간(개당): 42분 / [성능] 2단계여과 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 1.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 9000Pa / [배터리] 충전시간: 4~5시간 / 사용시간(개당): 45분 / [성능] 헤파필터 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,500Pa / 최대출력: 150W / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 색상: 블랙, 화이트 / 무게: 852g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 15W / [배터리] [구성] 틈새 / 거치대 / [부가] 색상: 레드 / 무게: 1kg / 크기(가로x세로x깊이): 400x115x110mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 140AW / 흡입력: 23000Pa / [배터리] 분리형 (1개) / 사용시간(개당): 35분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [기능] 먼지감지센서 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 어반그레이 / 무게: 1.82kg / 크기(가로x세로x깊이): 250x1200x230mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 충전시간: 3시간30분 / 사용시간(개당): 30분 / [기능] 물분사 / 배터리잔량표시 / 거치대 / 걸레자동세척 / [부가] 물통용량: 0.6L,  오수통: 0.55L / 색상: 화이트&amp;그레이 / 무게: 3.8kg / 크기(가로x세로x깊이): 240x1160x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150AW / 흡입력: 25000Pa / [배터리] 충전시간: 4시간 / 사용시간(개당): 1시간30분 / [성능] BLDC모터 / 5단계여과 / [기능] 디스플레이표시창 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 레드 / 무게: 1.6kg / 크기(가로x세로): 202x1226mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 50분 / [성능] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 30000Pa / [배터리] 분리형 (1개) / 충전시간: 4~5시간 / 사용시간(개당): 42분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] 먼지감지센서 / 디스플레이표시창 / LED라이트 / [구성] 바닥 / 틈새 / 패브릭 / 거치대 / [부가] 무게: 1.5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 티탄골드 / 크기(가로x세로x깊이): 250x1136x215mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 74W / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 20분 / 집진필터 / 배터리용량: 5,000mAH / 충전시간: 3.5시간 / 소음: 72dB / 보조배터리겸용</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,200Pa / 2중필터 / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 15분 / 크기: 75x34x75mm / 무게: 637g</t>
+  </si>
+  <si>
+    <t>업소용청소기 / 고압세척기 / 무선형 / [부가] 색상: 옐로우</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 110AW / 흡입력: 22000Pa / [배터리] 내장형 / 충전시간: 3시간 / 사용시간(개당): 1시간 / [성능] BLDC모터 / 헤파필터 / 7단계여과 / [기능] 프리볼트 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.65L / 색상: 화이트 / 무게: 2.7kg / 크기(가로x세로x깊이): 259x1191x221mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 15,000Pa / 최대출력: 135W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 45분 / 배터리 잔량표시 / 소음: 75dB / 충전방식: USB C타입 / 충전시간: 3~5시간 / 색상: 그린, 실버 / 크기: 296x56.5mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 30분 / [기능] 각도조절 / [부가] 색상: 블랙, 화이트 / 무게: 3.14kg / 크기(가로x세로x깊이): 411x1105x192mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 1시간 / [기능] 물분사 / LED라이트 / 각도조절 / 거치대 / 프리볼트 / [부가] 색상: 화이트 / 무게: 2.6kg / 크기(가로x세로x깊이): 296x1114x220mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 15분 / 충전시간: 2시간30분 / 크기: 300x70mm / 무게: 550g</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 (분리형) / 충전시간: 2시간30분 / 사용시간(개당): 30분 / [기능] LED라이트 / 가구손상방지 / 각도조절 / 배터리잔량표시 / 거치대 / 프리볼트 / [부가] 색상: 블랙 / 무게: 3.7kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1180x205mm</t>
+  </si>
+  <si>
     <t>차량용청소기 / 무선 / 흡입력: 4,800Pa / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 20분 / 충전시간: 3시간 / 에어건기능 / 충전방식: USB C타입 / 색상: 블랙, 레드, 그레이 / 크기: 72x280mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150AW / 흡입력: 25000Pa / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간5분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [기능] 먼지감지센서 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 물통용량: 0.25L / 색상: 화이트 / 무게: 4kg / 크기(가로x세로x깊이): 256x1286x214mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기+공기청정기세트 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 우디그린 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm / [AX40A5310WMD] 공기청정기 / 크기(가로x세로x깊이): 350x640x350mm / ※ 상품 옵션 확인 후 구매</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 3,000Pa / 최대출력: 60W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 충전시간: 3시간 / 색상: 그린, 그레이 / 크기: 62.5x220mm / 무게: 345g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 150AW / 흡입력: 22000Pa / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 실버 / 무게: 1.45kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 60W / [배터리] 충전시간: 8시간 / 사용시간(개당): 9분 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙+레드 / 크기(가로x세로x깊이): 200x138x400mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 굳은먼지 / 틈새 / 매트리스 / 거치대 / [부가] 색상: 아이언그레이 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 50AW / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 20분 / [성능] 헤파필터 / 5단계여과 / [구성] 전방향플러피 / 미니모터 / 솔형 / 틈새 / 서페이스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.2L / 색상: 퍼플 / 무게: 1.9kg / 버튼식 / 크기(가로x세로x깊이): 208x1077x92mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 색상: 아이언그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 30분 / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / [부가] 색상: 네이비 / 무게: 3.5kg / 모터과열방지 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1230x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 20000Pa / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 50분 / [성능] 인버터모터 / 헤파필터 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 옐로우 / 무게: 1.4kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 100AW / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 40분 / [성능] 5단계여과 / [기능] 디스플레이표시창 / [구성] 슬림소프트롤러 / 미니모터 / 솔형 / 스터번더트 / 틈새 / 매트리스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.3L / 색상: 오렌지 / 무게: 1.9kg / 크기(가로x세로x깊이): 250x1100x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 22000Pa / [배터리] 내장형 / 충전시간: 5시간 / 사용시간(개당): 40분 / [기능] 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / [부가] 먼지통용량: 0.3L / 색상: 라이트그레이, 라이트그린 / 무게: 1.3kg / 크기(가로x세로x깊이): 439x157x93mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6000Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새 / 사용시간: 15분 / 충전시간: 2시간 / 크기: 70x302mm / 무게: 867g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 62W / [배터리] 충전시간: 8시간 / 사용시간(개당): 10분 / [부가] 색상: 화이트 / 무게: 1.5kg / 크기(가로x세로x깊이): 425x210x265mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 8시간 / 사용시간(개당): 10분 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙 / 무게: 1.4kg / 크기(가로x세로x깊이): 200x420x138mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 충전시간: 4시간 / 사용시간(개당): 4시간 / [부가]  브러쉬: 평면, 틈새, 스크럽</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 100AW / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 40분 / [성능] 5단계여과 / [기능] 디스플레이표시창 / [구성] 슬림소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 업탑어댑터 / 도킹스테이션 / [부가] 먼지통용량: 0.3L / 무게: 1.9kg / 크기(가로x세로x깊이): 250x1100x250mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 14,000~Pa / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 28분 / 충전방식: USB C타입 / 크기: 420x72mm / 무게: 600g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 12000Pa / 충전시간: 4시간 / 사용시간(개당): 40분 / [성능] 헤파필터 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 퍼플 / 무게: 1.89kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 74W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 16분 / 충전시간: 2시간 / 충전방식: USB C타입 / 크기: 73x73x300mm / 무게: 580g</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 왕복식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 50분 / [기능] 물분사 / LED라이트 / 프리볼트 / [부가] 색상: 화이트 / 무게: 2.4kg / 110V / 변환어댑터: 필요</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 타공형/분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 카밍베이지 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 10시간 / 사용시간(개당): 10분 / [구성] 솔형 / 틈새 / [부가] 색상: 블랙+화이트 / 무게: 0.9kg / 거치대</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 25000Pa / [배터리] 분리형 (1개) / 충전시간: 3시간 / 사용시간(개당): 50분 / [성능] BLDC모터 / [기능] LED라이트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 2.5kg / 크기(가로x세로x깊이): 256x1172x217mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 7시간 / 사용시간(개당): 10분 / [구성] 바닥 / 틈새 / [부가]  크기(가로x세로x깊이): 230x1100x130mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 15분 / 색상: 블랙, 화이트, 핑크 / 크기: 335x110x120mm / 무게: 780g</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 30분 / [기능] LED라이트 / [부가] 색상: 화이트 / 무게: 3.1kg / 패드: 극세사(벨크로형)  / 크기(가로x세로x깊이): 420x1250x190mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 판타지실버+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 3중필터 / 헤파필터 / 사용시간: 20분 / 충전시간: 4시간 / 충전방식: USB C타입 / 크기:295x150mm / 무게: 450g / 색상: 오렌지, 퍼플</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 충전시간: 4시간 / 사용시간(개당): 1시간20분 / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / [부가] 물통용량: 0.15L / 무게: 1.6kg / 크기(가로x세로x깊이): 295x1120x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 21000Pa / [배터리] 분리형 (1개) / [성능] 인버터모터 / 헤파필터 / 4단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 무게: 2.9kg / 크기(가로x세로x깊이): 240x1120x230mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 55분 / [성능] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 인디고블루 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 45분 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 펫 / 솔형 / 틈새 / [부가] 먼지통용량: 0.3L / 색상: 쉘화이트 / 무게: 2.65kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 45분 / [성능] DC모터 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 2.2kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150W / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 50분 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 틈새 / [부가] 먼지통용량: 0.3L / 색상: 미스티화이트 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1143x194mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 5시간 / 사용시간(개당): 15분 / [기능] 배터리잔량표시 / [부가] 색상: 에어본+내츄럴그레이 / 무게: 1.2kg / 크기(가로x세로x깊이): 119x121x410mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 내장형 / 충전시간: 6시간 / 사용시간(개당): 1시간15분 / [부가] 색상: 화이트 / 무게: 0.78kg / 방수 / 브러쉬: 스크럽, 평면, 틈새, 광택 / 크기(가로x세로x깊이): 165x1120x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 사용시간(개당): 57분 / [성능] BLDC모터 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 무게: 1.3kg / 색상: 라이트그레이, 라이트그린, 레드, 블루</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 24분 / [성능] 3단계여과 / [구성] 거치대 / [부가] 먼지통용량: 0.5L / 색상: 아이언그레이메탈릭 / 무게: 1.14kg / 크기(가로x세로x깊이): 124x137x410mm</t>
+  </si>
+  <si>
     <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 140AW / 흡입력: 23000Pa / [배터리] 분리형 (1개) / 사용시간(개당): 35분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [기능] 먼지감지센서 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 거치대 / [부가] 색상: 어반그레이 / 무게: 1.82kg / 크기(가로x세로x깊이): 250x1200x230mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기+공기청정기세트 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 페블그레이 / 크기(가로x세로x깊이): 250x930x202mm / [AX34A5310WWD] 공기청정기 / 크기(가로x세로x깊이): 350x540x350mm / ※ 상품 옵션 확인 후 구매</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 48분 / [성능] 4단계여과 / [기능] 셀프스탠딩 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 소프트핑크 / 무게: 3.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 85AW / 흡입력: 18000Pa / [배터리] 내장형 / 충전시간: 3시간30분 / 사용시간(개당): 48분 / [성능] BLDC모터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 먼지통용량: 0.4L / 색상: 화이트+레드 / 무게: 1.4kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 25000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 50분 / [성능] BLDC모터 / 헤파필터 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 화이트 / 무게: 2.3kg / 크기(가로x세로x깊이): 240x1200x220mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 8,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20~30분 / 색상: 블랙, 화이트 / 충전시간: 3시간 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 크기: 200x160mm / 무게: 365g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 12000Pa / [배터리] 사용시간(개당): 35분 / [성능] 헤파필터 / [기능] 프리볼트 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 네이비 / 무게: 0.8kg / 크기(가로x세로x깊이): 80x400x80mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 55분 / [성능] 5단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 마호가니브론즈 / 무게: 2.75kg / 크기(가로x세로x깊이): 256x1100x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / 충전시간: 3시간 / 사용시간(개당): 45분 / [성능] DC모터 / [구성] 바닥 / 솔형 / 틈새 / [부가] 먼지통용량: 0.55L / 색상: 실버&amp;그레이 / 무게: 2.58kg / 크기(가로x세로x깊이): 235x1060x240mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 충전방식: USB C타입 / 크기: 350x70mm / 무게: 520g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 8시간 / 사용시간(개당): 8~12분 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블랙 / 크기(가로x세로x깊이): 200x420x138mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 35AW / [배터리] 충전시간: 5시간 / 사용시간(개당): 25분 / [기능] 배터리잔량표시 / [구성] 펫 / 틈새 / 거치대 / [부가] 먼지통용량: 0.7L / 무게: 1.2kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (2개) / 충전시간: 4시간30분 / 사용시간(개당): 33분 / [성능] BLDC모터 / 6단계여과 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 다크실버 / 무게: 1.41kg / 크기(가로x세로x깊이): 285x734x188mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 30000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 40분 / [성능] BLDC모터 / 헤파필터 / 3단계여과 / [기능] 셀프스탠딩 / [구성] 바닥 / 더스팅 / 틈새 / [부가] 무게: 2.4kg / 크기(가로x세로x깊이): 250x1100x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 3500Pa / [배터리] 충전시간: 3시간 / 사용시간(개당): 20분 / [성능] 헤파필터 / [구성] 솔형 / 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 0.48kg / 크기(가로x세로): 98x395mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 60W / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 12분 / 충전시간: 4시간 / 색상: 블랙, 화이트 / 크기: 340x65x85mm / 무게: 656g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 유선형 / [성능] 헤파필터 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 블루 / 크기(가로x세로x깊이): 270x1220x270mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+스팀 / 회전식 / 무선형 / 배터리: 분리형 / 리튬이온 / 사용시간(개당): 15분 / [기능] 물분사 / LED라이트 / 각도조절 / [부가] 물통용량: 0.33L / 색상: 밀키화이트, 매트블랙 / 무게: 5.34kg / 예열시간: 180초 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 344x1150x350mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 충전방식: USB C타입 / 크기: 315x67mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 20000Pa / [배터리] 충전시간: 4시간 / 사용시간(개당): 50분 / [성능] BLDC모터 / 헤파필터 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 패브릭 / 거치대 / [부가] 먼지통용량: 0.32L / 색상: 화이트, 블랙 / 무게: 2.12kg / 크기(가로x세로x깊이): 245x1120x160mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 13000Pa / [배터리] 충전시간: 5시간 / 사용시간(개당): 20분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] 프리볼트 / [구성] 바닥 / 솔형 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.34kg / 크기(가로x세로x깊이): 225x1200x78mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 20000Pa / [배터리] 충전시간: 4시간40분 / 사용시간(개당): 50분 / [성능] BLDC모터 / 헤파필터 / [기능] LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.36L / 물통용량: 0.25L / 무게: 0.93kg / 물분사 / 크기(가로x세로x깊이): 240x1040x211mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 7000Pa / [배터리] 내장형 / 사용시간(개당): 30분 / [성능] 2단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 화이트 / 무게: 1.15kg / 크기(가로x세로x깊이): 220x1200x90mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 내장형 / 충전시간: 8시간 / 사용시간(개당): 50분 / [구성] 거치대 / [부가] 색상: 화이트 / 무게: 1.4kg / 브러쉬 : 평면, 원형, 틈새, 광택 / 방수 / 각도조절 / 크기(가로x세로x깊이): 165x1110x130mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 70W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 13분 / 색상: 블랙, 화이트, 민트 / 충전시간: 2.5시간 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 크기: 74x74x335mm / 무게: 620g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 8시간 / 사용시간(개당): 9분 / [구성] 바닥 / 틈새 / 거치대 / [부가] 색상: 블랙</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 충전시간: 2시간 / 사용시간(개당): 1시간30분 / [기능] 청소모드: UV살균 / [부가] 무게: 0.453kg / 크기(가로x세로x깊이): 80x530x60mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 10시간 / 사용시간(개당): 15분 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 골드브라운 / 무게: 1.3kg / 크기(가로x세로x깊이): 110x390x120mm</t>
+  </si>
+  <si>
+    <t>차량용선풍기 / 무선 / 흡입력: 5,800Pa / 헤파필터 / 추가노즐: 솔브러쉬 / 크기: 70x290mm / 무게: 560g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 4시간 / 사용시간(개당): 12분 / [성능] 3단계여과 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 거치대 / [부가] 색상: 크롬 / 무게: 1.38kg / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 5시간30분 / 사용시간(개당): 16분 / [성능] 2단계여과 / [기능] 프리볼트 / [구성] 솔형 / 틈새 / 거치대 / [부가] 무게: 1.74kg / 건습식 / 크기(가로x세로x깊이): 414x120x118mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 4시간 / 사용시간(개당): 13분29초 / [성능] 2단계여과 / [기능] 프리볼트 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.56L / 색상: 블랙 / 무게: 1.47kg / 크기(가로x세로x깊이): 130x235x150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 물통용량: 0.15L / 색상: 미드나잇블루 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 충전시간: 5시간30분 / 사용시간(개당): 45분 / 헤파필터 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 1.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 150AW / 흡입력: 26500Pa / [배터리] 충전시간: 2시간30분 / 사용시간(개당): 1시간10분 / [성능] BLDC모터 / 헤파필터 / 6단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 펫 / 매트리스 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 실버 / 무게: 2.7kg / 크기(가로x세로x깊이): 259x1191x164mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3시간 / 사용시간(개당): 30분 / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / [부가] 색상: 화이트 / 무게: 3kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 410x1230x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / [배터리] 분리형 (2개) / 충전시간: 3시간 / 사용시간(개당): 40분 / [성능] BLDC모터 / 3단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 색상: 실버 / 무게: 2.6kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 19000Pa / [배터리] 분리형 (1개) / 충전시간: 4시간30분 / 사용시간(개당): 35분 / [성능] BLDC모터 / 헤파필터 / 3단계여과 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 메트로블루, 메트로골드 / 무게: 1.5kg / 크기(가로x세로x깊이): 305x225x117mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 10~12시간 / [구성] 카펫 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블루 / 무게: 0.683kg / 크기(가로x세로x깊이): 95x350x105mm</t>
+  </si>
+  <si>
     <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 펫 / 솔형 / 틈새 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미드나잇블루 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
   </si>
   <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 2시간30분 / 사용시간(개당): 2시간 / [기능] 각도조절 / [부가] 색상: 엣지블랙, 빈티지레드 / 브러쉬: 마루, 바닥, 욕실, 창문, 차 / 크기(가로x세로): 300x1150mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 6시간 / 사용시간(개당): 1시간 / [성능] 5단계여과 / [기능] 먼지감지센서 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 더스팅 / 3in1 / 업탑어댑터 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 사틴화이트 / 무게: 4.1kg / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 최대출력: 70W / 2중필터 / 헤파필터 / LED라이트 / 사용시간: 13분 / 충전시간: 3시간30분 / 충전방식: USB C타입 / 크기: 306x70x70mm / 무게: 610g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 53분 / [성능] 알러지필터 / E10급 / 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 마호가니브론즈 / 무게: 2.8kg / 크기(가로x세로x깊이): 258ㅌ1105ㅌ140mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 충전시간: 4시간 / 사용시간(개당): 1시간40분 / [기능] 프리볼트 / [구성] 연장툴 / [부가] 색상: 블랙 / 생활방수 / 각도조절</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 사용시간(개당): 1시간 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] 프리볼트 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 업탑어댑터 / 거치대 / [부가] 색상: 레드 / 무게: 2.3kg / 크기(가로x세로x깊이): 256x1243x133mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 4시간 / 사용시간(개당): 11분 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 블루, 오렌지 / 무게: 1.28kg / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 헤파필터 / 추가노즐: 솔브러쉬, 연장호스 / LED라이트 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 크기: 167mmx55mmx146mm / 무게: 300g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 5단계여과 / [기능] 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 색상: 아이언그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱+핸디형 / 회전식 / 무선형 / 배터리: 리튬이온 / 사용시간(개당): 45분 / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / 배터리잔량표시 / [부가] 색상: 화이트 / 무게: 3.5kg / 모터과열방지 / 과충전방지 / 오토스토핑 / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 440x1200x240mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 사용시간(개당): 7분 / [부가] 색상: 블루 / 크기(가로x세로x깊이): 273x170x77mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 35AW / [배터리] 충전시간: 4시간 / 사용시간(개당): 12분 / [성능] 3단계여과 / [기능] 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 연장툴 / 거치대 / [부가] 색상: 크롬 / 무게: 1.38kg / 피벗노즐 / 크기(가로x세로x깊이): 270x170x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 굳은먼지 / 상부청소 / 틈새 / 긴틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 색상: 판타지실버 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 5시간 / 사용시간(개당): 35분 / [성능] DC모터 / 헤파필터 / 4단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블랙+블루 / 크기(가로x세로x깊이): 260x1170x230mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 10시간 / 사용시간(개당): 8분 / [구성] 솔형 / 틈새 / 거치대 / [부가] 색상: 레드 / 건습식 / 크기(가로x세로x깊이): 110x120x390mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 13,000Pa / 최대출력: 100W / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 35분 / 충전시간: 5시간 / 충전방식: 200V / 크기: 500x90mm / 무게: 850g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 220AW / [배터리] 분리형 (1개) / 충전시간: 4시간30분 / 사용시간(개당): 1시간 / [성능] 헤파필터 / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 블랙 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 50AW / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 20분 / [성능] 헤파필터 / 5단계여과 / [구성] 전방향플러피 / 미니모터 / 솔형 / 틈새 / 긴틈새 / 서페이스 / 연장툴 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.2L / 색상: 골드 / 무게: 1.9kg / 버튼식 / 크기(가로x세로x깊이): 208x1077x92mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [성능] BLDC모터 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 실버 / 무게: 2.5kg / 크기(가로x세로x깊이): 250x1045x240mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 충전시간: 4시간 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 화이트 / 크기(가로x세로x깊이): 230x970x45mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 17500Pa / [배터리] 내장형 / 충전시간: 3시간30분 / 사용시간(개당): 30분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 무게: 1.8kg / 크기(가로x세로x깊이): 225x1130x130mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 30분 / 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 블랙 / 무게: 2.5kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 8000Pa / [배터리] 충전시간: 5시간 / 사용시간(개당): 22분 / [성능] 2단계여과 / [기능] 셀프스탠딩 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 거치대 / [부가] 무게: 1kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / 충전시간: 2시간30분 / 사용시간(개당): 12분 / [성능] BLDC모터 / [구성] 바닥 / 침구 / 솔형 / 틈새 / 연장툴 / [부가] 색상: 블랙 / 무게: 0.624kg / 크기(가로x세로x깊이): 61x419x53mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,200Pa / 최대출력: 70W / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 18분 / 충전시간: 1시간30분~2시간 / 충전방식: USB C타입 / 크기: 73x305mm / 무게: 703g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,200Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 배터리용량: 2,200mAh / 충전시간: 4~5시간 / 무게: 498g</t>
+  </si>
+  <si>
+    <t>침구청소기 / 핸디형 / 무선형 / 충전시간: 2시간 / 사용시간(개당): 1시간30분 / [기능] 청소모드: UV살균 / [부가] 무게: 0.388kg / 크기(가로x세로x깊이): 80x530x60mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 100AW / [배터리] 충전시간: 3시간30분 / 사용시간(개당): 30분 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 도킹스테이션 / [부가] 무게: 2.32kg / 크기(가로x세로x깊이): 250x1243x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 12000Pa / [배터리] 충전시간: 4~5시간 / 사용시간(개당): 35분 / [성능] 헤파필터 / 4단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 색상: 화이트 / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x212mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,200Pa / 3중필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 10분 / 배터리용량: 2,000mAh / 충전시간: 2시간 / 크기: 75x275mm / 무게: 780g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 23분 / [성능] 3단계여과 / [부가] 먼지통용량: 0.5L / 색상: 에보니블랙 / 무게: 1.09kg / 크기(가로x세로x깊이): 124x410x137mm</t>
+  </si>
+  <si>
+    <t>욕실청소기 / 무선형 / [배터리] 충전시간: 3시간 / 사용시간(개당): 1시간50분 / [부가] 색상: 블랙, 화이트 / 무게: 0.4kg / 생활방수 / 브러쉬: 모서리, 평면, 스펀지수세미 / 크기(가로x세로x깊이): 110x205x50mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 30000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 50분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [기능] 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 틈새 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 2.5kg / 크기(가로x세로x깊이): 241x1144x211mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3~4시간 / 사용시간(개당): 30분 / [기능] 물분사 / 셀프스탠딩 / 거치대 / [부가] 무게: 3kg / 오토클리닝</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,200Pa / 최대출력: 90W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 배터리용량: 2,200mAh / 충전시간: 4~5시간 / 무게: 498g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / [배터리] 분리형 (2개) / 충전시간: 1시간38분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 5단계여과 / [기능] 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 물걸레 / 침구 / 펫 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 소프트샌드 / 무게: 2.88kg / 크기(가로x세로x깊이): 260x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 5시간 / 사용시간(개당): 57분 / [성능] BLDC모터 / [구성] 바닥 / 침구 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 클리어화이트 / 무게: 1kg / 크기(가로x세로x깊이): 114x421x139mm</t>
+  </si>
+  <si>
     <t>차량용청소기 / 무선 / 흡입력: 5,000Pa / 최대출력: 80W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / LED라이트 / 사용시간: 13분 / 충전방식: 시거잭 / 충전시간: 1시간30분 / 크기: 298x70mm / 무게: 560g</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (2개) / 사용시간(개당): 20분 / [성능] 스마트인버터모터 / [기능] LED라이트 / [구성] 바닥 / 침구 / 솔형 / 틈새 / [부가] 색상: 아이언그레이 / 크기(가로x세로x깊이): 270x1105x190mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.6L / 색상: 코타블랙 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 8시간 / 사용시간(개당): 20분 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 색상: 화이트 / 무게: 1.28kg / 크기(가로x세로x깊이): 144x387x136mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 왕복식 / 무선형 / 충전시간: 4시간 / 사용시간(개당): 40분 / [기능] 물분사 / 각도조절 / 셀프스탠딩 / 풋터치버튼 / [부가] 물통용량: 0.15L / 무게: 2.2kg / 패드: 폴리에스터+나일론(벨크로형) / 크기(가로x세로x깊이): 260x1170x210mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3~4시간 / 사용시간(개당): 5시간 / [기능] 각도조절 / 셀프스탠딩 / [부가] 무게: 1.08kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1250x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] [성능] BLDC모터 / 헤파필터 / 4단계여과 / [구성] 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.1L / 색상: 블랙 / 무게: 0.55kg / 크기(가로x세로x깊이): 70x415x70mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 6시간 / 사용시간(개당): 20분 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 그레이 / 무게: 1.4kg / 크기(가로x세로x깊이): 230x1200x230mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,200Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 배터리용량: 2,200mAh / 충전시간: 4~5시간 / 색상: 블랙, 화이트 / 무게: 498g</t>
+  </si>
+  <si>
+    <t>업소용청소기 / 고압세척기 / 무선형 / [기능] BLDC모터 / 충전시간: 1시간15분 / 사용시간(개당): 24분 / 작동압력: 25bar / 연장관 / [부가] 색상: 오렌지 / 무게: 2.5kg / 배터리잔량표시 / 브러쉬: 회오리노즐, 하부세척커넥터, 호스 / 크기(가로x세로x깊이): 92x12x22mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 3시간30분 / 사용시간(개당): 22분 / 헤파필터 / [기능] 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / [부가] 먼지통용량: 0.6L / 색상: 화이트 / 무게: 1.8kg / 크기(가로x세로x깊이): 235x1150x175mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5200Pa / 2중필터 / 추가노즐: 솔브러쉬 / 사용시간: 20분 / 크기: 235x65x65mm / 무게 : 596g / 길이조절</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 충전시간: 4시간 / 사용시간(개당): 30분 / [기능] 물분사 / LED라이트 / 각도조절 / 셀프스탠딩 / [부가] 색상: 블랙 / 무게: 1.8kg / 크기(가로x세로x깊이): 335x1100x180mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 11000Pa / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 40분 / [성능] 헤파필터 / 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 실버 / 무게: 2kg</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / [기능] 배터리잔량표시 / 걸레자동세척 / [부가] 물통용량: 0.8L / 무게: 4.8kg / 크기(가로x세로x깊이): 286x1100x256mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 50분 / [성능] 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 긴틈새 / 거치대 / [부가] 먼지통용량: 0.3L / 색상: 사틴화이트 / 무게: 2.8kg / 크기(가로x세로x깊이): 386x692x146mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / [기능] 물분사 / LED라이트 / 셀프스탠딩 / [부가] 색상: 화이트실버 / 무게: 1.8kg / 크기(가로x세로x깊이): 320x1160x195mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 35분 / [성능] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 데님블루 / 무게: 2.5kg / 크기(가로x세로x깊이): 299x689x165mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 배터리: 리튬이온 / 충전시간: 3~4시간 / 사용시간(개당): 4시간 / [기능] 각도조절 / 셀프스탠딩 / [부가] 무게: 0.98kg / 패드: 극세사(벨크로형) / 크기(가로x세로x깊이): 290x1050x135mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 사용시간(개당): 40분 / [성능] 헤파필터 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 레드 / 무게: 2.3kg / 크기(가로x세로x깊이): 160x1160x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 5시간 / 사용시간(개당): 30분 / [성능] 헤파필터 / [기능] 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [부가] 색상: 블랙 / 무게: 2.31kg / 크기(가로x세로x깊이): 260x1092x220 mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 9000Pa / [배터리] 분리형 (1개) / 충전시간: 4~5시간 / 사용시간(개당): 45분 / [성능] 헤파필터 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.55L / 무게: 2.2kg / 크기(가로x세로x깊이): 240x1040x210mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 13000Pa / [배터리] 충전시간: 4시간 / 사용시간(개당): 25분 / [성능] BLDC모터 / 헤파필터 / 2단계여과 / [구성] 바닥 / 틈새 / 거치대 / [부가] 무게: 0.55kg / 크기(가로x세로x깊이): 70x430x70mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 8시간 / 사용시간(개당): 12분 / [구성] 거치대 / [부가] 먼지통용량: 0.34L / 물통용량: 0.3L / 색상: 화이트 / 크기(가로x세로x깊이): 435x140x110mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 200W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 헤파필터 / 5단계여과 / [기능] 디스플레이표시창 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / 청정스테이션 / [부가] 먼지통용량: 0.6L / 색상: 티탄/그레이 / 무게: 2.64kg / 크기(가로x세로x깊이): 250x1123x215mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 배터리: 리튬이온 / 사용시간(개당): 30분 / BLDC모터 / 흡입력: 5000Pa / 흡입력: 150W / [기능] 물분사 / 배터리잔량표시 / 거치대 / 걸레자동세척 / 헤파필터 / [부가] 색상: 블랙 / 무게: 4.3kg / 음성안내 / UV살균 / 크기(가로x세로x깊이): 200x1150x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 100W / 흡입력: 9500Pa / [배터리] 분리형 (1개) / 충전시간: 4~5시간 / 사용시간(개당): 50분 / [성능] 헤파필터 / 5단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 2.1kg / 크기(가로x세로x깊이): 250x1150x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 31000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] 먼지감지센서 / 디스플레이표시창 / LED라이트 / [구성] 바닥 / 카펫 / 물걸레 / 침구 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.8L / 무게: 1.5kg / 크기(가로x세로): 270x1100mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간30분 / 사용시간(개당): 53분 / [성능] 알러지필터 / E10급 / 5단계여과 / [기능] 셀프스탠딩 / LED라이트 / [구성] 바닥 / 펫 / 솔형 / 긴틈새 / [부가] 먼지통용량: 0.3L / 색상: 쉘그레이 / 무게: 2.8kg / 크기(가로x세로x깊이): 258x1105x140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 155AW / [배터리] 충전시간: 5시간 / 사용시간(개당): 40분 / [구성] 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 틈새 / 매트리스 / 연장툴 / 도킹스테이션 / [부가] 무게: 2.58kg / 크기(가로x세로x깊이): 250x1264x224mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 사용시간(개당): 40분 / [성능] 헤파필터 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / [부가] 색상: 퍼플 / 무게: 2.3kg / 크기(가로x세로x깊이): 160x1160x270mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 60W / [배터리] 충전시간: 8시간 / 사용시간(개당): 9분 / [구성] 바닥 / 틈새 / 연장툴 / 거치대 / [부가] 색상: 레드+블랙 / 크기(가로x세로x깊이): 400x138x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 30W / [배터리] 분리형 (1개) / 사용시간(개당): 20분 / [부가] 먼지통용량: 0.65L / 색상: 블루 / 무게: 1.2kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 185AW / [배터리] 분리형 (1개) / 충전시간: 4시간30분 / 사용시간(개당): 1시간 / [성능] 헤파필터 / [기능] 디스플레이표시창 / [구성] 하이토크 / 소프트롤러 / 미니모터 / 솔형 / 더스팅 / 스터번더트 / 틈새 / 매트리스 / 거치대 / 도킹스테이션 / [부가] 먼지통용량: 0.54L / 색상: 니켈블루 / 무게: 2.95kg / 크기(가로x세로x깊이): 250x1280x261mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 15W / [배터리] 충전시간: 8시간 / 사용시간(개당): 10분 / [구성] 틈새 / [부가] 색상: 오렌지 / 무게: 0.75kg / 크기(가로x세로x깊이): 174x103x317mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 펫 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미드나잇블루 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 침구 / 펫 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 물통용량: 0.15L / 색상: 미드나잇블루 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 150AW / 흡입력: 25000Pa / [배터리] 분리형 (1개) / 충전시간: 4시간 / 사용시간(개당): 1시간10분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 물통용량: 0.25L / 색상: 레드 / 무게: 1.67kg / 크기(가로x세로x깊이): 259x1191x164mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 185AW / 흡입력: 27000Pa / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 1시간25분 / [성능] BLDC모터 / 5단계여과 / [기능] 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙 / 무게: 1.64kg</t>
+  </si>
+  <si>
     <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 스마트인버터모터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 올인원타워 / [부가] 색상: 아이언그레이+딥그레이 / 무게: 2.6kg / 크기(가로x세로x깊이): 250x1120x260mm</t>
   </si>
   <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입력: 17000Pa / [배터리] 충전시간: 5시간 / 사용시간(개당): 30분 / [성능] BLDC모터 / 헤파필터 / 3단계여과 / [기능] LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 에어컴프레셔 / 크기(가로x세로x깊이): 80x1040x190mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / [배터리] 충전시간: 4시간 / 사용시간(개당): 35분 / [성능] BLDC모터 / 헤파필터 / 4단계여과 / [기능] LED라이트 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 1.5kg / 크기(가로x세로x깊이): 240x1260x100mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 45분 / [성능] DC모터 / [기능] LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 매트리스 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 블랙+옐로우 / 무게: 2.2kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기+공기청정기세트 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm / [AX34A5310WWD] 공기청정기 / 크기(가로x세로x깊이): 350x540x350mm / ※ 상품 옵션 확인 후 구매</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 4,200Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 10분 / 충전시간: 2시간 / 충전방식: USB C타입 / 크기: 70x70x270mm / 무게: 780g</t>
+  </si>
+  <si>
+    <t>물걸레청소기+스팀청소기 / 스틱형 / 물걸레+진공 / 롤러식 / 무선형 / 배터리: 리튬이온 / 충전시간: 4시간 / 사용시간(개당): 30분 / [기능] 물분사 / 각도조절 / 배터리잔량표시 / 거치대 / 걸레자동세척 / 프리볼트 / [부가] 물통용량: 0.83L / 색상: 화이트+블루 / 무게: 5.2kg / 오토클리닝 / 크기(가로x세로x깊이): 260x1156x250mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 20000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 40분 / [성능] BLDC모터 / 헤파필터 / 3단계여과 / [기능] LED라이트 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 무게: 2.3kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 130AW / 흡입력: 23500Pa / [배터리] 충전시간: 2시간30분 / 사용시간(개당): 1시간 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 매트리스 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 레드 / 무게: 1.5kg / 크기(가로x세로x깊이): 259x1191x158mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 최대출력: 65W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 사용시간: 18분 / 크기: 72x72x270mm / 무게: 550g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / 충전시간: 3시간 / 사용시간(개당): 45분 / [성능] DC모터 / [구성] 바닥 / 솔형 / 틈새 / [부가] 먼지통용량: 0.55L / 색상: 실버&amp;블루 / 무게: 2.58kg / 크기(가로x세로x깊이): 235x1060x240mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 29000Pa / [배터리] 분리형 (1개) / 충전시간: 5시간 / 사용시간(개당): 40분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.8L / 색상: 블루 / 무게: 1.5kg / 크기(가로x세로x깊이): 255x1170x235mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 충전시간: 8시간 / 사용시간(개당): 10분 / [기능] 셀프스탠딩 / [구성] 바닥 / [부가] 색상: 화이트 / 무게: 1.8kg / 크기(가로x세로x깊이): 220x1130x490mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 33000Pa / [배터리] 분리형 (1개) / 사용시간(개당): 2시간 / [성능] BLDC모터 / 헤파필터 / [기능] 먼지감지센서 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / 프리볼트 / [구성] 바닥 / 물걸레 / 침구 / 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 화이트, 블랙 / 무게: 2.97kg / 물분사 / 크기(가로x세로x깊이): 265x1200x170mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 사용시간(개당): 40분 / [성능] 헤파필터 / [기능] LED라이트 / 프리볼트 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / [부가] 무게: 2.3kg / 크기(가로x세로x깊이): 130x1200x200mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 6000Pa / [배터리] 충전시간: 5시간 / 사용시간(개당): 30분 / [성능] BLDC모터 / 헤파필터 / 5단계여과 / [구성] 솔형 / 틈새 / 거치대 / [부가] 먼지통용량: 0.5L / 색상: 화이트 / 무게: 0.64kg / 크기(가로x세로x깊이): 65x400x65mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 분리형 (1개) / 충전시간: 4시간30분 / 사용시간(개당): 33분 / [성능] BLDC모터 / 6단계여과 / [기능] 배터리잔량표시 / 바닥 / 솔형 / 틈새 / 패브릭 / 거치대 / [부가] 먼지통용량: 0.5L / 무게: 2.6kg</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 미드나잇블루 / 무게: 2.5kg / 액세서리크래들  / 크기(가로x세로x깊이): 250x930x202mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 190AW / 흡입력: 27000Pa / [배터리] 사용시간(개당): 1시간30분 / [성능] 헤파필터 / 5단계여과 / [기능] 먼지감지센서 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 솔형 / 틈새 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.6L / 물통용량: 0.23L / 색상: 실버 / 무게: 1.76kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 9,900Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 충전시간: 2시간 30분 / 크기: 300x70mm / /무게: 500g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 45W / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 충전시간: 4시간 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 크기: 70x65x350mm / 무게: 531g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 분리형 (1개) / 헤파필터 / [기능] 셀프스탠딩 / 프리볼트 / [구성] 바닥 / 틈새 / 연장툴 / [부가] 먼지통용량: 0.25L / 색상: 메탈블랙 / 무게: 2.8kg / 크기(가로x세로x깊이): 250x1130x225mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,000Pa / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 크기: 150x182x218mm / 무게: 650g</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 6,200Pa / 2중필터 / 헤파필터 / 스테인리스 필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 15분 / 에어컴프 겸용 / 크기: 75x125x75mm / 무게: 637g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / [배터리] 분리형 (2개) / 충전시간: 1시간38분 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 5단계여과 / [기능] 디스플레이표시창 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 솔형 / 더스팅 / 틈새 / 거치대 / [부가] 먼지통용량: 0.4L / 색상: 쉘화이트 / 무게: 2.88kg / 크기(가로x세로x깊이): 260x1120x260mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,300Pa / 최대출력: 50W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 싸이클론 / 사용시간: 20분 / 배터리용량: 2,000mAh / 충전시간: 3시간 / 충전방식: USB C타입 / 크기: 255x75x170mm / 무게: 365g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 42분 / [성능] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 틈새 / 긴틈새 / 패브릭 / 연장툴 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 스페이스틸 / 무게: 3.22kg / 크기(가로x세로x깊이): 303x690x162mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 4시간 / 사용시간(개당): 30분 / [성능] 4단계여과 / [기능] 브러쉬자동청소 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 틈새 / 거치대 / [부가] 먼지통용량: 0.42L / 색상: 에보니블랙 / 무게: 2.45kg / 크기(가로x세로x깊이): 299x689x165mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 물걸레전용 / 회전식 / 무선형 / 배터리: 리튬이온 (분리형) / 충전시간: 4시간 / 사용시간(개당): 30분 / [기능] LED라이트 / 각도조절 / 셀프스탠딩 / [부가] 색상: 아이보리 / 무게: 3.6kg / 모터과열방지 / 과충전방지 / 패드: 일반, 초극세사 / 크기(가로x세로x깊이): 410x11800x205mm</t>
+  </si>
+  <si>
+    <t>물걸레청소기 / 스틱형 / 회전식 / 무선형 / 충전시간: 5시간 / 사용시간(개당): 1시간 / [기능] 물분사 / 각도조절 / 셀프스탠딩 / [부가] 색상: 화이트 / 무게: 1.7kg / 크기(가로x세로): 160x1140mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / [배터리] 내장형 / 충전시간: 6시간 / 사용시간(개당): 55분 / [성능] 5단계여과 / [기능] 먼지감지센서 / 셀프스탠딩 / LED라이트 / 배터리잔량표시 / [구성] 바닥 / 침구 / 더스팅 / 3in1 / 업탑어댑터 / 거치대 / [부가] 먼지통용량: 0.7L / 색상: 인디고블루 / 무게: 4.1kg / 플렉스리프트 / 크기(가로x세로x깊이): 215x1200x249mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입+걸레겸용 / 흡입력: 210W / [배터리] 분리형 (2개) / 충전시간: 4시간 / 사용시간(개당): 1시간 / [성능] 인버터모터 / 분리형배기필터 / 헤파필터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / 배터리잔량표시 / IoT기능 / [구성] 바닥 / 솔형 / 틈새 / 거치대 / [부가] 색상: 카밍베이지 / 크기(가로x세로x깊이): 250x1120x260mm</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / [배터리] 충전시간: 10시간 / 헤파필터 / [기능] 셀프스탠딩 / [구성] 바닥 / 연장툴 / [부가] 색상: 블랙, 레드</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기+로봇청소기세트 / 무선형 / 흡입+걸레겸용 / 흡입력: 220W / [배터리] 분리형 (1개) / 충전시간: 3시간30분 / 사용시간(개당): 1시간 / [성능] 디지털인버터모터 / 5단계여과 / [기능] 자동물공급 / 디스플레이표시창 / LED라이트 / 배터리잔량표시 / IoT기능 / 자동먼지비움 / [구성] 바닥 / 물걸레 / 솔형 / 틈새 / 연장툴 / 청정스테이션 / [부가] 먼지통용량: 0.5L / 색상: 산토리니베이지 / 크기(가로x세로x깊이): 250x930x202mm / ※ 상품 옵션 확인 후 구매</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 흡입력: 5,500Pa / 최대출력: 45W / 2중필터 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬 / 사용시간: 20분 / 충전시간: 4시간 / 충전방식: USB C타입 / 배터리용량: 2,000mAh / 색상: 화이트, 블랙 / 크기: 70x65x350mm / 무게: 531g</t>
+  </si>
+  <si>
+    <t>핸디/스틱청소기 / 무선형 / 흡입전용 / 흡입력: 35AW / [배터리] 충전시간: 5시간 / 사용시간(개당): 25분 / [기능] 배터리잔량표시 / [구성] 틈새 / 거치대 / [부가] 먼지통용량: 0.7L / 무게: 1.2kg</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 12V / 흡입력: 13,000Pa / 최대출력: 120W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / LED라이트 / 사용시간: 20분</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 충전시간: 3시간 / 크기: 188mm</t>
+  </si>
+  <si>
+    <t>차량용청소기 / 무선 / 최대출력: 40W / 헤파필터 / 추가노즐: 틈새, 솔브러쉬, 연장호스 / 크기: 390x105x125mm / 무게: 530g</t>
+  </si>
+  <si>
     <t>46,010</t>
   </si>
   <si>
+    <t>972,790</t>
+  </si>
+  <si>
+    <t>34,400</t>
+  </si>
+  <si>
+    <t>679,010</t>
+  </si>
+  <si>
+    <t>60,430</t>
+  </si>
+  <si>
+    <t>161,970</t>
+  </si>
+  <si>
+    <t>470,290</t>
+  </si>
+  <si>
+    <t>39,760</t>
+  </si>
+  <si>
+    <t>494,280</t>
+  </si>
+  <si>
+    <t>178,000</t>
+  </si>
+  <si>
+    <t>39,800</t>
+  </si>
+  <si>
+    <t>683,790</t>
+  </si>
+  <si>
+    <t>773,390</t>
+  </si>
+  <si>
+    <t>551,210</t>
+  </si>
+  <si>
+    <t>86,800</t>
+  </si>
+  <si>
+    <t>49,450</t>
+  </si>
+  <si>
+    <t>495,660</t>
+  </si>
+  <si>
+    <t>69,680</t>
+  </si>
+  <si>
+    <t>747,410</t>
+  </si>
+  <si>
+    <t>601,050</t>
+  </si>
+  <si>
+    <t>579,800</t>
+  </si>
+  <si>
+    <t>884,840</t>
+  </si>
+  <si>
+    <t>77,880</t>
+  </si>
+  <si>
+    <t>39,900</t>
+  </si>
+  <si>
+    <t>48,280</t>
+  </si>
+  <si>
+    <t>462,560</t>
+  </si>
+  <si>
+    <t>140,220</t>
+  </si>
+  <si>
+    <t>945,990</t>
+  </si>
+  <si>
+    <t>57,900</t>
+  </si>
+  <si>
+    <t>545,730</t>
+  </si>
+  <si>
+    <t>597,200</t>
+  </si>
+  <si>
+    <t>166,860</t>
+  </si>
+  <si>
+    <t>177,900</t>
+  </si>
+  <si>
+    <t>137,060</t>
+  </si>
+  <si>
+    <t>912,200</t>
+  </si>
+  <si>
+    <t>686,830</t>
+  </si>
+  <si>
+    <t>53,310</t>
+  </si>
+  <si>
+    <t>37,880</t>
+  </si>
+  <si>
+    <t>58,090</t>
+  </si>
+  <si>
     <t>904,050</t>
   </si>
   <si>
+    <t>66,170</t>
+  </si>
+  <si>
+    <t>38,610</t>
+  </si>
+  <si>
+    <t>353,158</t>
+  </si>
+  <si>
+    <t>85,000</t>
+  </si>
+  <si>
+    <t>247,000</t>
+  </si>
+  <si>
+    <t>144,430</t>
+  </si>
+  <si>
+    <t>18,020</t>
+  </si>
+  <si>
+    <t>56,000</t>
+  </si>
+  <si>
+    <t>600,100</t>
+  </si>
+  <si>
+    <t>28,460</t>
+  </si>
+  <si>
+    <t>132,920</t>
+  </si>
+  <si>
+    <t>1,098,000</t>
+  </si>
+  <si>
+    <t>817,810</t>
+  </si>
+  <si>
+    <t>89,000</t>
+  </si>
+  <si>
+    <t>1,052,860</t>
+  </si>
+  <si>
+    <t>270,980</t>
+  </si>
+  <si>
+    <t>79,000</t>
+  </si>
+  <si>
+    <t>166,870</t>
+  </si>
+  <si>
+    <t>307,960</t>
+  </si>
+  <si>
+    <t>44,900</t>
+  </si>
+  <si>
+    <t>62,710</t>
+  </si>
+  <si>
+    <t>161,090</t>
+  </si>
+  <si>
+    <t>49,160</t>
+  </si>
+  <si>
+    <t>236,500</t>
+  </si>
+  <si>
+    <t>79,510</t>
+  </si>
+  <si>
+    <t>159,000</t>
+  </si>
+  <si>
+    <t>20,400</t>
+  </si>
+  <si>
+    <t>19,900</t>
+  </si>
+  <si>
+    <t>755,470</t>
+  </si>
+  <si>
+    <t>694,200</t>
+  </si>
+  <si>
+    <t>716,930</t>
+  </si>
+  <si>
+    <t>669,540</t>
+  </si>
+  <si>
+    <t>541,590</t>
+  </si>
+  <si>
+    <t>79,840</t>
+  </si>
+  <si>
+    <t>1,087,140</t>
+  </si>
+  <si>
+    <t>51,990</t>
+  </si>
+  <si>
+    <t>24,520</t>
+  </si>
+  <si>
+    <t>462,470</t>
+  </si>
+  <si>
     <t>967,950</t>
   </si>
   <si>
+    <t>17,880</t>
+  </si>
+  <si>
+    <t>781,440</t>
+  </si>
+  <si>
+    <t>700,820</t>
+  </si>
+  <si>
+    <t>438,990</t>
+  </si>
+  <si>
+    <t>183,970</t>
+  </si>
+  <si>
+    <t>39,420</t>
+  </si>
+  <si>
+    <t>748,990</t>
+  </si>
+  <si>
+    <t>1,366,240</t>
+  </si>
+  <si>
+    <t>353,450</t>
+  </si>
+  <si>
+    <t>108,890</t>
+  </si>
+  <si>
+    <t>66,790</t>
+  </si>
+  <si>
+    <t>42,670</t>
+  </si>
+  <si>
+    <t>710,410</t>
+  </si>
+  <si>
+    <t>57,880</t>
+  </si>
+  <si>
+    <t>38,920</t>
+  </si>
+  <si>
+    <t>62,410</t>
+  </si>
+  <si>
+    <t>499,000</t>
+  </si>
+  <si>
+    <t>53,440</t>
+  </si>
+  <si>
+    <t>292,360</t>
+  </si>
+  <si>
+    <t>31,860</t>
+  </si>
+  <si>
+    <t>27,360</t>
+  </si>
+  <si>
+    <t>47,220</t>
+  </si>
+  <si>
+    <t>386,960</t>
+  </si>
+  <si>
+    <t>22,400</t>
+  </si>
+  <si>
+    <t>29,590</t>
+  </si>
+  <si>
+    <t>1,102,700</t>
+  </si>
+  <si>
+    <t>36,450</t>
+  </si>
+  <si>
+    <t>10,560</t>
+  </si>
+  <si>
+    <t>29,470</t>
+  </si>
+  <si>
+    <t>837,670</t>
+  </si>
+  <si>
+    <t>652,500</t>
+  </si>
+  <si>
+    <t>830,850</t>
+  </si>
+  <si>
+    <t>134,100</t>
+  </si>
+  <si>
+    <t>46,800</t>
+  </si>
+  <si>
+    <t>79,200</t>
+  </si>
+  <si>
+    <t>153,220</t>
+  </si>
+  <si>
+    <t>36,080</t>
+  </si>
+  <si>
+    <t>159,870</t>
+  </si>
+  <si>
     <t>24,800</t>
   </si>
   <si>
+    <t>188,000</t>
+  </si>
+  <si>
+    <t>63,580</t>
+  </si>
+  <si>
+    <t>882,550</t>
+  </si>
+  <si>
+    <t>347,650</t>
+  </si>
+  <si>
+    <t>483,510</t>
+  </si>
+  <si>
+    <t>179,000</t>
+  </si>
+  <si>
+    <t>526,350</t>
+  </si>
+  <si>
+    <t>30,590</t>
+  </si>
+  <si>
+    <t>55,340</t>
+  </si>
+  <si>
+    <t>376,660</t>
+  </si>
+  <si>
+    <t>37,390</t>
+  </si>
+  <si>
+    <t>39,000</t>
+  </si>
+  <si>
+    <t>164,380</t>
+  </si>
+  <si>
+    <t>188,720</t>
+  </si>
+  <si>
+    <t>170,150</t>
+  </si>
+  <si>
+    <t>183,560</t>
+  </si>
+  <si>
+    <t>54,500</t>
+  </si>
+  <si>
+    <t>43,900</t>
+  </si>
+  <si>
+    <t>119,000</t>
+  </si>
+  <si>
+    <t>677,550</t>
+  </si>
+  <si>
+    <t>248,990</t>
+  </si>
+  <si>
+    <t>85,900</t>
+  </si>
+  <si>
+    <t>337,470</t>
+  </si>
+  <si>
+    <t>208,990</t>
+  </si>
+  <si>
+    <t>738,940</t>
+  </si>
+  <si>
+    <t>24,260</t>
+  </si>
+  <si>
+    <t>30,340</t>
+  </si>
+  <si>
+    <t>70,900</t>
+  </si>
+  <si>
+    <t>203,480</t>
+  </si>
+  <si>
+    <t>285,970</t>
+  </si>
+  <si>
+    <t>132,980</t>
+  </si>
+  <si>
+    <t>115,470</t>
+  </si>
+  <si>
+    <t>25,240</t>
+  </si>
+  <si>
+    <t>198,750</t>
+  </si>
+  <si>
+    <t>214,570</t>
+  </si>
+  <si>
+    <t>150,840</t>
+  </si>
+  <si>
+    <t>372,970</t>
+  </si>
+  <si>
+    <t>24,890</t>
+  </si>
+  <si>
     <t>12,900</t>
   </si>
   <si>
+    <t>936,000</t>
+  </si>
+  <si>
+    <t>179,050</t>
+  </si>
+  <si>
+    <t>707,960</t>
+  </si>
+  <si>
+    <t>115,640</t>
+  </si>
+  <si>
+    <t>650,320</t>
+  </si>
+  <si>
+    <t>45,890</t>
+  </si>
+  <si>
+    <t>827,230</t>
+  </si>
+  <si>
+    <t>81,160</t>
+  </si>
+  <si>
+    <t>228,490</t>
+  </si>
+  <si>
+    <t>69,900</t>
+  </si>
+  <si>
+    <t>12,230</t>
+  </si>
+  <si>
+    <t>208,760</t>
+  </si>
+  <si>
+    <t>42,900</t>
+  </si>
+  <si>
+    <t>39,300</t>
+  </si>
+  <si>
+    <t>13,900</t>
+  </si>
+  <si>
+    <t>491,560</t>
+  </si>
+  <si>
+    <t>987,000</t>
+  </si>
+  <si>
+    <t>68,000</t>
+  </si>
+  <si>
+    <t>89,780</t>
+  </si>
+  <si>
+    <t>69,000</t>
+  </si>
+  <si>
+    <t>22,640</t>
+  </si>
+  <si>
+    <t>274,700</t>
+  </si>
+  <si>
+    <t>248,950</t>
+  </si>
+  <si>
+    <t>286,800</t>
+  </si>
+  <si>
+    <t>185,990</t>
+  </si>
+  <si>
+    <t>651,200</t>
+  </si>
+  <si>
+    <t>85,140</t>
+  </si>
+  <si>
+    <t>58,200</t>
+  </si>
+  <si>
+    <t>222,420</t>
+  </si>
+  <si>
+    <t>169,000</t>
+  </si>
+  <si>
+    <t>122,150</t>
+  </si>
+  <si>
+    <t>124,200</t>
+  </si>
+  <si>
+    <t>98,490</t>
+  </si>
+  <si>
+    <t>46,810</t>
+  </si>
+  <si>
+    <t>209,480</t>
+  </si>
+  <si>
     <t>37,300</t>
   </si>
   <si>
+    <t>265,000</t>
+  </si>
+  <si>
+    <t>589,000</t>
+  </si>
+  <si>
+    <t>27,120</t>
+  </si>
+  <si>
+    <t>190,130</t>
+  </si>
+  <si>
+    <t>44,100</t>
+  </si>
+  <si>
+    <t>707,390</t>
+  </si>
+  <si>
+    <t>603,020</t>
+  </si>
+  <si>
+    <t>565,840</t>
+  </si>
+  <si>
+    <t>128,900</t>
+  </si>
+  <si>
+    <t>1,400,000</t>
+  </si>
+  <si>
+    <t>795,100</t>
+  </si>
+  <si>
+    <t>208,390</t>
+  </si>
+  <si>
+    <t>68,900</t>
+  </si>
+  <si>
+    <t>40,850</t>
+  </si>
+  <si>
+    <t>39,110</t>
+  </si>
+  <si>
+    <t>765,180</t>
+  </si>
+  <si>
+    <t>63,000</t>
+  </si>
+  <si>
+    <t>99,000</t>
+  </si>
+  <si>
+    <t>51,970</t>
+  </si>
+  <si>
+    <t>85,990</t>
+  </si>
+  <si>
+    <t>639,910</t>
+  </si>
+  <si>
+    <t>49,000</t>
+  </si>
+  <si>
+    <t>130,150</t>
+  </si>
+  <si>
+    <t>56,780</t>
+  </si>
+  <si>
+    <t>39,890</t>
+  </si>
+  <si>
+    <t>93,150</t>
+  </si>
+  <si>
+    <t>914,840</t>
+  </si>
+  <si>
+    <t>43,160</t>
+  </si>
+  <si>
+    <t>63,256</t>
+  </si>
+  <si>
+    <t>88,930</t>
+  </si>
+  <si>
+    <t>206,190</t>
+  </si>
+  <si>
+    <t>188,500</t>
+  </si>
+  <si>
+    <t>159,130</t>
+  </si>
+  <si>
+    <t>351,850</t>
+  </si>
+  <si>
+    <t>83,520</t>
+  </si>
+  <si>
+    <t>49,800</t>
+  </si>
+  <si>
+    <t>269,000</t>
+  </si>
+  <si>
+    <t>89,100</t>
+  </si>
+  <si>
     <t>232,290</t>
   </si>
   <si>
-    <t>842,550</t>
+    <t>669,940</t>
+  </si>
+  <si>
+    <t>158,690</t>
+  </si>
+  <si>
+    <t>79,060</t>
+  </si>
+  <si>
+    <t>156,420</t>
+  </si>
+  <si>
+    <t>28,640</t>
+  </si>
+  <si>
+    <t>75,050</t>
+  </si>
+  <si>
+    <t>219,990</t>
+  </si>
+  <si>
+    <t>274,630</t>
+  </si>
+  <si>
+    <t>45,900</t>
+  </si>
+  <si>
+    <t>56,390</t>
+  </si>
+  <si>
+    <t>348,270</t>
+  </si>
+  <si>
+    <t>149,000</t>
+  </si>
+  <si>
+    <t>29,500</t>
+  </si>
+  <si>
+    <t>91,890</t>
+  </si>
+  <si>
+    <t>28,890</t>
+  </si>
+  <si>
+    <t>249,000</t>
+  </si>
+  <si>
+    <t>42,300</t>
+  </si>
+  <si>
+    <t>127,080</t>
+  </si>
+  <si>
+    <t>64,910</t>
+  </si>
+  <si>
+    <t>239,000</t>
+  </si>
+  <si>
+    <t>41,990</t>
+  </si>
+  <si>
+    <t>42,990</t>
+  </si>
+  <si>
+    <t>53,400</t>
+  </si>
+  <si>
+    <t>179,550</t>
+  </si>
+  <si>
+    <t>26,310</t>
+  </si>
+  <si>
+    <t>48,500</t>
+  </si>
+  <si>
+    <t>83,570</t>
+  </si>
+  <si>
+    <t>46,570</t>
+  </si>
+  <si>
+    <t>99,100</t>
+  </si>
+  <si>
+    <t>487,650</t>
+  </si>
+  <si>
+    <t>98,000</t>
+  </si>
+  <si>
+    <t>322,520</t>
+  </si>
+  <si>
+    <t>299,005</t>
+  </si>
+  <si>
+    <t>160,700</t>
+  </si>
+  <si>
+    <t>528,000</t>
+  </si>
+  <si>
+    <t>119,550</t>
+  </si>
+  <si>
+    <t>18,470</t>
+  </si>
+  <si>
+    <t>842,600</t>
+  </si>
+  <si>
+    <t>469,060</t>
+  </si>
+  <si>
+    <t>273,110</t>
+  </si>
+  <si>
+    <t>49,420</t>
+  </si>
+  <si>
+    <t>236,550</t>
+  </si>
+  <si>
+    <t>62,090</t>
+  </si>
+  <si>
+    <t>31,800</t>
+  </si>
+  <si>
+    <t>656,110</t>
+  </si>
+  <si>
+    <t>745,070</t>
+  </si>
+  <si>
+    <t>125,000</t>
+  </si>
+  <si>
+    <t>35,600</t>
+  </si>
+  <si>
+    <t>96,840</t>
+  </si>
+  <si>
+    <t>1,039,950</t>
+  </si>
+  <si>
+    <t>92,060</t>
+  </si>
+  <si>
+    <t>26,800</t>
+  </si>
+  <si>
+    <t>949,900</t>
+  </si>
+  <si>
+    <t>898,990</t>
+  </si>
+  <si>
+    <t>623,740</t>
+  </si>
+  <si>
+    <t>157,750</t>
+  </si>
+  <si>
+    <t>38,900</t>
+  </si>
+  <si>
+    <t>129,000</t>
+  </si>
+  <si>
+    <t>45,800</t>
+  </si>
+  <si>
+    <t>155,300</t>
+  </si>
+  <si>
+    <t>60,270</t>
+  </si>
+  <si>
+    <t>141,500</t>
+  </si>
+  <si>
+    <t>355,410</t>
+  </si>
+  <si>
+    <t>98,040</t>
+  </si>
+  <si>
+    <t>64,900</t>
+  </si>
+  <si>
+    <t>83,510</t>
+  </si>
+  <si>
+    <t>36,620</t>
+  </si>
+  <si>
+    <t>198,000</t>
+  </si>
+  <si>
+    <t>299,000</t>
+  </si>
+  <si>
+    <t>52,620</t>
+  </si>
+  <si>
+    <t>640,110</t>
+  </si>
+  <si>
+    <t>274,440</t>
   </si>
   <si>
     <t>29,820</t>
   </si>
   <si>
-    <t>900,750</t>
+    <t>330,480</t>
+  </si>
+  <si>
+    <t>447,990</t>
+  </si>
+  <si>
+    <t>54,320</t>
+  </si>
+  <si>
+    <t>91,820</t>
+  </si>
+  <si>
+    <t>68,800</t>
+  </si>
+  <si>
+    <t>72,970</t>
+  </si>
+  <si>
+    <t>129,310</t>
+  </si>
+  <si>
+    <t>59,000</t>
+  </si>
+  <si>
+    <t>117,910</t>
+  </si>
+  <si>
+    <t>108,000</t>
+  </si>
+  <si>
+    <t>66,220</t>
+  </si>
+  <si>
+    <t>133,700</t>
+  </si>
+  <si>
+    <t>180,920</t>
+  </si>
+  <si>
+    <t>240,470</t>
+  </si>
+  <si>
+    <t>141,850</t>
+  </si>
+  <si>
+    <t>150,280</t>
+  </si>
+  <si>
+    <t>80,060</t>
+  </si>
+  <si>
+    <t>126,620</t>
+  </si>
+  <si>
+    <t>93,190</t>
+  </si>
+  <si>
+    <t>96,960</t>
+  </si>
+  <si>
+    <t>34,080</t>
+  </si>
+  <si>
+    <t>458,990</t>
+  </si>
+  <si>
+    <t>220,000</t>
+  </si>
+  <si>
+    <t>162,000</t>
+  </si>
+  <si>
+    <t>235,000</t>
+  </si>
+  <si>
+    <t>281,700</t>
+  </si>
+  <si>
+    <t>669,870</t>
+  </si>
+  <si>
+    <t>81,300</t>
+  </si>
+  <si>
+    <t>41,880</t>
+  </si>
+  <si>
+    <t>47,070</t>
+  </si>
+  <si>
+    <t>959,460</t>
+  </si>
+  <si>
+    <t>20,940</t>
+  </si>
+  <si>
+    <t>772,890</t>
+  </si>
+  <si>
+    <t>1,249,500</t>
+  </si>
+  <si>
+    <t>377,560</t>
+  </si>
+  <si>
+    <t>378,760</t>
+  </si>
+  <si>
+    <t>62,950</t>
+  </si>
+  <si>
+    <t>897,740</t>
+  </si>
+  <si>
+    <t>153,700</t>
+  </si>
+  <si>
+    <t>139,000</t>
+  </si>
+  <si>
+    <t>931,870</t>
+  </si>
+  <si>
+    <t>190,290</t>
+  </si>
+  <si>
+    <t>685,520</t>
+  </si>
+  <si>
+    <t>78,500</t>
+  </si>
+  <si>
+    <t>659,370</t>
+  </si>
+  <si>
+    <t>600,000</t>
+  </si>
+  <si>
+    <t>259,004</t>
+  </si>
+  <si>
+    <t>53,150</t>
+  </si>
+  <si>
+    <t>254,870</t>
+  </si>
+  <si>
+    <t>278,350</t>
+  </si>
+  <si>
+    <t>56,940</t>
+  </si>
+  <si>
+    <t>198,990</t>
+  </si>
+  <si>
+    <t>57,500</t>
+  </si>
+  <si>
+    <t>44,820</t>
+  </si>
+  <si>
+    <t>812,900</t>
+  </si>
+  <si>
+    <t>667,930</t>
+  </si>
+  <si>
+    <t>399,000</t>
+  </si>
+  <si>
+    <t>65,950</t>
+  </si>
+  <si>
+    <t>42,880</t>
+  </si>
+  <si>
+    <t>267,030</t>
+  </si>
+  <si>
+    <t>63,450</t>
+  </si>
+  <si>
+    <t>52,460</t>
+  </si>
+  <si>
+    <t>522,360</t>
+  </si>
+  <si>
+    <t>52,980</t>
+  </si>
+  <si>
+    <t>189,000</t>
+  </si>
+  <si>
+    <t>143,490</t>
+  </si>
+  <si>
+    <t>168,950</t>
+  </si>
+  <si>
+    <t>73,420</t>
+  </si>
+  <si>
+    <t>277,000</t>
+  </si>
+  <si>
+    <t>814,400</t>
+  </si>
+  <si>
+    <t>1,281,800</t>
+  </si>
+  <si>
+    <t>52,200</t>
+  </si>
+  <si>
+    <t>97,020</t>
+  </si>
+  <si>
+    <t>31,750</t>
+  </si>
+  <si>
+    <t>48,440</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +3927,7 @@
         <v>403</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1673,10 +3935,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1684,10 +3946,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1695,10 +3957,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1706,10 +3968,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1717,10 +3979,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>413</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1728,10 +3990,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1739,10 +4001,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1750,10 +4012,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1761,10 +4023,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1772,10 +4034,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>413</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1783,10 +4045,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C13" t="s">
-        <v>413</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1794,10 +4056,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1805,10 +4067,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>413</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1816,10 +4078,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>413</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1827,10 +4089,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>413</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1838,10 +4100,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="C18" t="s">
-        <v>413</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1849,10 +4111,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C19" t="s">
-        <v>413</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1860,10 +4122,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>413</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1871,10 +4133,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1882,10 +4144,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C22" t="s">
-        <v>413</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1893,10 +4155,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>413</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1904,10 +4166,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1915,10 +4177,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C25" t="s">
-        <v>413</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1926,10 +4188,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="C26" t="s">
-        <v>413</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1937,10 +4199,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="C27" t="s">
-        <v>413</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1948,10 +4210,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="C28" t="s">
-        <v>413</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1959,10 +4221,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1970,10 +4232,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
-        <v>413</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1981,10 +4243,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C31" t="s">
-        <v>413</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1992,10 +4254,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="C32" t="s">
-        <v>413</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2003,10 +4265,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="C33" t="s">
-        <v>413</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2014,10 +4276,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C34" t="s">
-        <v>413</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2025,10 +4287,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="C35" t="s">
-        <v>413</v>
+        <v>820</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2036,10 +4298,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="C36" t="s">
-        <v>413</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2047,10 +4309,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2058,10 +4320,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>832</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2069,10 +4331,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="C39" t="s">
-        <v>413</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2080,10 +4342,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C40" t="s">
-        <v>413</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2091,10 +4353,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="C41" t="s">
-        <v>413</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2102,10 +4364,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2113,10 +4375,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="C43" t="s">
-        <v>414</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2124,10 +4386,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="C44" t="s">
-        <v>414</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2135,10 +4397,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C45" t="s">
-        <v>414</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2146,10 +4408,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="C46" t="s">
-        <v>414</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2157,10 +4419,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="C47" t="s">
-        <v>414</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2168,10 +4430,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="C48" t="s">
-        <v>414</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2179,10 +4441,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="C49" t="s">
-        <v>414</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2190,10 +4452,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="C50" t="s">
-        <v>414</v>
+        <v>844</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2201,10 +4463,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="C51" t="s">
-        <v>414</v>
+        <v>845</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2212,10 +4474,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="C52" t="s">
-        <v>414</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2223,10 +4485,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2234,10 +4496,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="C54" t="s">
-        <v>414</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2245,10 +4507,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="C55" t="s">
-        <v>414</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2256,10 +4518,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="C56" t="s">
-        <v>414</v>
+        <v>850</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2267,10 +4529,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="C57" t="s">
-        <v>414</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2278,10 +4540,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="C58" t="s">
-        <v>414</v>
+        <v>852</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2289,10 +4551,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="C59" t="s">
-        <v>414</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2300,10 +4562,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="C60" t="s">
-        <v>414</v>
+        <v>854</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2311,10 +4573,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="C61" t="s">
-        <v>414</v>
+        <v>855</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2322,10 +4584,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>856</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2333,10 +4595,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="C63" t="s">
-        <v>414</v>
+        <v>857</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2344,10 +4606,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="C64" t="s">
-        <v>414</v>
+        <v>858</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2355,10 +4617,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="C65" t="s">
-        <v>414</v>
+        <v>859</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2366,10 +4628,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s">
-        <v>414</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2377,10 +4639,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="C67" t="s">
-        <v>414</v>
+        <v>861</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2388,10 +4650,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="C68" t="s">
-        <v>414</v>
+        <v>862</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2399,10 +4661,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="C69" t="s">
-        <v>414</v>
+        <v>850</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2410,10 +4672,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="C70" t="s">
-        <v>414</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2421,10 +4683,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="C71" t="s">
-        <v>414</v>
+        <v>864</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2432,10 +4694,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="C72" t="s">
-        <v>414</v>
+        <v>865</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2443,10 +4705,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="C73" t="s">
-        <v>414</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2454,10 +4716,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C74" t="s">
-        <v>414</v>
+        <v>867</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2465,10 +4727,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>868</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2476,10 +4738,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="C76" t="s">
-        <v>414</v>
+        <v>869</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2487,10 +4749,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>870</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2498,10 +4760,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>404</v>
+        <v>476</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>871</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2509,10 +4771,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2520,10 +4782,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>873</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2531,10 +4793,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="C81" t="s">
-        <v>414</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2542,10 +4804,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="C82" t="s">
-        <v>415</v>
+        <v>875</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2553,10 +4815,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="C83" t="s">
-        <v>415</v>
+        <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2564,10 +4826,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>482</v>
       </c>
       <c r="C84" t="s">
-        <v>415</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2575,10 +4837,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="C85" t="s">
-        <v>415</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2586,10 +4848,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="C86" t="s">
-        <v>415</v>
+        <v>873</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2597,10 +4859,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>879</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2608,10 +4870,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="C88" t="s">
-        <v>415</v>
+        <v>880</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2619,10 +4881,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C89" t="s">
-        <v>415</v>
+        <v>881</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2630,10 +4892,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="C90" t="s">
-        <v>415</v>
+        <v>882</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2641,10 +4903,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>405</v>
+        <v>489</v>
       </c>
       <c r="C91" t="s">
-        <v>415</v>
+        <v>883</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2652,10 +4914,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="C92" t="s">
-        <v>415</v>
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2663,10 +4925,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="C93" t="s">
-        <v>415</v>
+        <v>885</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2674,10 +4936,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="C94" t="s">
-        <v>415</v>
+        <v>886</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2685,10 +4947,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>405</v>
+        <v>493</v>
       </c>
       <c r="C95" t="s">
-        <v>415</v>
+        <v>887</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2696,10 +4958,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="C96" t="s">
-        <v>415</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2707,10 +4969,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>405</v>
+        <v>495</v>
       </c>
       <c r="C97" t="s">
-        <v>415</v>
+        <v>889</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2718,10 +4980,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>405</v>
+        <v>496</v>
       </c>
       <c r="C98" t="s">
-        <v>415</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2729,10 +4991,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="C99" t="s">
-        <v>415</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2740,10 +5002,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="C100" t="s">
-        <v>415</v>
+        <v>892</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2751,10 +5013,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="C101" t="s">
-        <v>415</v>
+        <v>893</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2762,10 +5024,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="C102" t="s">
-        <v>415</v>
+        <v>894</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2773,10 +5035,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="C103" t="s">
-        <v>415</v>
+        <v>895</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2784,10 +5046,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>405</v>
+        <v>502</v>
       </c>
       <c r="C104" t="s">
-        <v>415</v>
+        <v>896</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2795,10 +5057,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>405</v>
+        <v>503</v>
       </c>
       <c r="C105" t="s">
-        <v>415</v>
+        <v>897</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2806,10 +5068,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>504</v>
       </c>
       <c r="C106" t="s">
-        <v>415</v>
+        <v>898</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2817,10 +5079,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>505</v>
       </c>
       <c r="C107" t="s">
-        <v>415</v>
+        <v>899</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2828,10 +5090,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>405</v>
+        <v>506</v>
       </c>
       <c r="C108" t="s">
-        <v>415</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2839,10 +5101,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>507</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
+        <v>901</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2850,10 +5112,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>405</v>
+        <v>508</v>
       </c>
       <c r="C110" t="s">
-        <v>415</v>
+        <v>902</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2861,10 +5123,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
+        <v>509</v>
       </c>
       <c r="C111" t="s">
-        <v>415</v>
+        <v>903</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2872,10 +5134,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>510</v>
       </c>
       <c r="C112" t="s">
-        <v>415</v>
+        <v>904</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2883,10 +5145,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>511</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>905</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2894,10 +5156,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>405</v>
+        <v>512</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>906</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2905,10 +5167,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>513</v>
       </c>
       <c r="C115" t="s">
-        <v>415</v>
+        <v>907</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2916,10 +5178,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>405</v>
+        <v>514</v>
       </c>
       <c r="C116" t="s">
-        <v>415</v>
+        <v>908</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2927,10 +5189,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>405</v>
+        <v>515</v>
       </c>
       <c r="C117" t="s">
-        <v>415</v>
+        <v>909</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2938,10 +5200,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>405</v>
+        <v>516</v>
       </c>
       <c r="C118" t="s">
-        <v>415</v>
+        <v>910</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2949,10 +5211,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>405</v>
+        <v>517</v>
       </c>
       <c r="C119" t="s">
-        <v>415</v>
+        <v>911</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2960,10 +5222,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="C120" t="s">
-        <v>415</v>
+        <v>912</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2971,10 +5233,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>405</v>
+        <v>519</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>913</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2982,10 +5244,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>406</v>
+        <v>520</v>
       </c>
       <c r="C122" t="s">
-        <v>416</v>
+        <v>914</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2993,10 +5255,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>406</v>
+        <v>521</v>
       </c>
       <c r="C123" t="s">
-        <v>416</v>
+        <v>915</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3004,10 +5266,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>522</v>
       </c>
       <c r="C124" t="s">
-        <v>416</v>
+        <v>916</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3015,10 +5277,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>523</v>
       </c>
       <c r="C125" t="s">
-        <v>416</v>
+        <v>917</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3026,10 +5288,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>524</v>
       </c>
       <c r="C126" t="s">
-        <v>416</v>
+        <v>918</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3037,10 +5299,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="C127" t="s">
-        <v>416</v>
+        <v>919</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3048,10 +5310,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="C128" t="s">
-        <v>416</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3059,10 +5321,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>406</v>
+        <v>527</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>921</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3070,10 +5332,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="C130" t="s">
-        <v>416</v>
+        <v>922</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3081,10 +5343,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>529</v>
       </c>
       <c r="C131" t="s">
-        <v>416</v>
+        <v>923</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3092,10 +5354,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>530</v>
       </c>
       <c r="C132" t="s">
-        <v>416</v>
+        <v>924</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3103,10 +5365,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>531</v>
       </c>
       <c r="C133" t="s">
-        <v>416</v>
+        <v>925</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3114,10 +5376,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>406</v>
+        <v>532</v>
       </c>
       <c r="C134" t="s">
-        <v>416</v>
+        <v>926</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3125,10 +5387,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>406</v>
+        <v>533</v>
       </c>
       <c r="C135" t="s">
-        <v>416</v>
+        <v>806</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3136,10 +5398,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="C136" t="s">
-        <v>416</v>
+        <v>927</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3147,10 +5409,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>535</v>
       </c>
       <c r="C137" t="s">
-        <v>416</v>
+        <v>928</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3158,10 +5420,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>406</v>
+        <v>536</v>
       </c>
       <c r="C138" t="s">
-        <v>416</v>
+        <v>929</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3169,10 +5431,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="C139" t="s">
-        <v>416</v>
+        <v>930</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3180,10 +5442,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="C140" t="s">
-        <v>416</v>
+        <v>931</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3191,10 +5453,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
       <c r="C141" t="s">
-        <v>416</v>
+        <v>932</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3202,10 +5464,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>406</v>
+        <v>540</v>
       </c>
       <c r="C142" t="s">
-        <v>416</v>
+        <v>933</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3213,10 +5475,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
+        <v>934</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3224,10 +5486,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>406</v>
+        <v>542</v>
       </c>
       <c r="C144" t="s">
-        <v>416</v>
+        <v>935</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3235,10 +5497,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="C145" t="s">
-        <v>416</v>
+        <v>936</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3246,10 +5508,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="C146" t="s">
-        <v>416</v>
+        <v>937</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3257,10 +5519,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>545</v>
       </c>
       <c r="C147" t="s">
-        <v>416</v>
+        <v>938</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3268,10 +5530,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="C148" t="s">
-        <v>416</v>
+        <v>939</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3279,10 +5541,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>406</v>
+        <v>547</v>
       </c>
       <c r="C149" t="s">
-        <v>416</v>
+        <v>940</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3290,10 +5552,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>406</v>
+        <v>548</v>
       </c>
       <c r="C150" t="s">
-        <v>416</v>
+        <v>941</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3301,10 +5563,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>406</v>
+        <v>549</v>
       </c>
       <c r="C151" t="s">
-        <v>416</v>
+        <v>942</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3312,10 +5574,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>550</v>
       </c>
       <c r="C152" t="s">
-        <v>416</v>
+        <v>943</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3323,10 +5585,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>406</v>
+        <v>551</v>
       </c>
       <c r="C153" t="s">
-        <v>416</v>
+        <v>944</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3334,10 +5596,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>406</v>
+        <v>552</v>
       </c>
       <c r="C154" t="s">
-        <v>416</v>
+        <v>945</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3345,10 +5607,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>406</v>
+        <v>553</v>
       </c>
       <c r="C155" t="s">
-        <v>416</v>
+        <v>946</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3356,10 +5618,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>406</v>
+        <v>554</v>
       </c>
       <c r="C156" t="s">
-        <v>416</v>
+        <v>947</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3367,10 +5629,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>406</v>
+        <v>555</v>
       </c>
       <c r="C157" t="s">
-        <v>416</v>
+        <v>948</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3378,10 +5640,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>406</v>
+        <v>556</v>
       </c>
       <c r="C158" t="s">
-        <v>416</v>
+        <v>949</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3389,10 +5651,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>406</v>
+        <v>557</v>
       </c>
       <c r="C159" t="s">
-        <v>416</v>
+        <v>950</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3400,10 +5662,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>558</v>
       </c>
       <c r="C160" t="s">
-        <v>416</v>
+        <v>951</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3411,10 +5673,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>406</v>
+        <v>559</v>
       </c>
       <c r="C161" t="s">
-        <v>416</v>
+        <v>952</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3422,10 +5684,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>407</v>
+        <v>560</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>953</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3433,10 +5695,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>407</v>
+        <v>561</v>
       </c>
       <c r="C163" t="s">
-        <v>417</v>
+        <v>954</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3444,10 +5706,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>407</v>
+        <v>562</v>
       </c>
       <c r="C164" t="s">
-        <v>417</v>
+        <v>955</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3455,10 +5717,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>407</v>
+        <v>563</v>
       </c>
       <c r="C165" t="s">
-        <v>417</v>
+        <v>956</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3466,10 +5728,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>407</v>
+        <v>564</v>
       </c>
       <c r="C166" t="s">
-        <v>417</v>
+        <v>957</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3477,10 +5739,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>407</v>
+        <v>565</v>
       </c>
       <c r="C167" t="s">
-        <v>417</v>
+        <v>958</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3488,10 +5750,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>407</v>
+        <v>566</v>
       </c>
       <c r="C168" t="s">
-        <v>417</v>
+        <v>959</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3499,10 +5761,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>407</v>
+        <v>567</v>
       </c>
       <c r="C169" t="s">
-        <v>417</v>
+        <v>960</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3510,10 +5772,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>407</v>
+        <v>568</v>
       </c>
       <c r="C170" t="s">
-        <v>417</v>
+        <v>961</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3521,10 +5783,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>407</v>
+        <v>569</v>
       </c>
       <c r="C171" t="s">
-        <v>417</v>
+        <v>820</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3532,10 +5794,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>407</v>
+        <v>570</v>
       </c>
       <c r="C172" t="s">
-        <v>417</v>
+        <v>807</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3543,10 +5805,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>407</v>
+        <v>571</v>
       </c>
       <c r="C173" t="s">
-        <v>417</v>
+        <v>962</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3554,10 +5816,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>407</v>
+        <v>572</v>
       </c>
       <c r="C174" t="s">
-        <v>417</v>
+        <v>963</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3565,10 +5827,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>407</v>
+        <v>573</v>
       </c>
       <c r="C175" t="s">
-        <v>417</v>
+        <v>964</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3576,10 +5838,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>407</v>
+        <v>574</v>
       </c>
       <c r="C176" t="s">
-        <v>417</v>
+        <v>965</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3587,10 +5849,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>407</v>
+        <v>575</v>
       </c>
       <c r="C177" t="s">
-        <v>417</v>
+        <v>966</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3598,10 +5860,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="C178" t="s">
-        <v>417</v>
+        <v>820</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3609,10 +5871,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>577</v>
       </c>
       <c r="C179" t="s">
-        <v>417</v>
+        <v>967</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3620,10 +5882,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>407</v>
+        <v>578</v>
       </c>
       <c r="C180" t="s">
-        <v>417</v>
+        <v>968</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3631,10 +5893,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>407</v>
+        <v>579</v>
       </c>
       <c r="C181" t="s">
-        <v>417</v>
+        <v>969</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3642,10 +5904,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>407</v>
+        <v>580</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>970</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3653,10 +5915,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>581</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>971</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3664,10 +5926,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>407</v>
+        <v>582</v>
       </c>
       <c r="C184" t="s">
-        <v>417</v>
+        <v>972</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3675,10 +5937,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>407</v>
+        <v>583</v>
       </c>
       <c r="C185" t="s">
-        <v>417</v>
+        <v>973</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3686,10 +5948,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>407</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s">
-        <v>417</v>
+        <v>974</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3697,10 +5959,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>585</v>
       </c>
       <c r="C187" t="s">
-        <v>417</v>
+        <v>975</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3708,10 +5970,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>586</v>
       </c>
       <c r="C188" t="s">
-        <v>417</v>
+        <v>976</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3719,10 +5981,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>407</v>
+        <v>587</v>
       </c>
       <c r="C189" t="s">
-        <v>417</v>
+        <v>977</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3730,10 +5992,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>407</v>
+        <v>588</v>
       </c>
       <c r="C190" t="s">
-        <v>417</v>
+        <v>978</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3741,10 +6003,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>407</v>
+        <v>589</v>
       </c>
       <c r="C191" t="s">
-        <v>417</v>
+        <v>862</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3752,10 +6014,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>407</v>
+        <v>590</v>
       </c>
       <c r="C192" t="s">
-        <v>417</v>
+        <v>979</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3763,10 +6025,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>407</v>
+        <v>591</v>
       </c>
       <c r="C193" t="s">
-        <v>417</v>
+        <v>980</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3774,10 +6036,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>407</v>
+        <v>592</v>
       </c>
       <c r="C194" t="s">
-        <v>417</v>
+        <v>981</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3785,10 +6047,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>407</v>
+        <v>593</v>
       </c>
       <c r="C195" t="s">
-        <v>417</v>
+        <v>982</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3796,10 +6058,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>407</v>
+        <v>594</v>
       </c>
       <c r="C196" t="s">
-        <v>417</v>
+        <v>983</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3807,10 +6069,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>407</v>
+        <v>595</v>
       </c>
       <c r="C197" t="s">
-        <v>417</v>
+        <v>984</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3818,10 +6080,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>407</v>
+        <v>596</v>
       </c>
       <c r="C198" t="s">
-        <v>417</v>
+        <v>985</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3829,10 +6091,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>407</v>
+        <v>597</v>
       </c>
       <c r="C199" t="s">
-        <v>417</v>
+        <v>986</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3840,10 +6102,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>407</v>
+        <v>598</v>
       </c>
       <c r="C200" t="s">
-        <v>417</v>
+        <v>987</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3851,10 +6113,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>407</v>
+        <v>599</v>
       </c>
       <c r="C201" t="s">
-        <v>417</v>
+        <v>988</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3862,10 +6124,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>408</v>
+        <v>600</v>
       </c>
       <c r="C202" t="s">
-        <v>418</v>
+        <v>989</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3873,10 +6135,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
+        <v>601</v>
       </c>
       <c r="C203" t="s">
-        <v>418</v>
+        <v>990</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3884,10 +6146,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="C204" t="s">
-        <v>418</v>
+        <v>991</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3895,10 +6157,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>603</v>
       </c>
       <c r="C205" t="s">
-        <v>418</v>
+        <v>992</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3906,10 +6168,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>604</v>
       </c>
       <c r="C206" t="s">
-        <v>418</v>
+        <v>993</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3917,10 +6179,10 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>408</v>
+        <v>605</v>
       </c>
       <c r="C207" t="s">
-        <v>418</v>
+        <v>994</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3928,10 +6190,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>408</v>
+        <v>606</v>
       </c>
       <c r="C208" t="s">
-        <v>418</v>
+        <v>995</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3939,10 +6201,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>408</v>
+        <v>607</v>
       </c>
       <c r="C209" t="s">
-        <v>418</v>
+        <v>996</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3950,10 +6212,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>408</v>
+        <v>608</v>
       </c>
       <c r="C210" t="s">
-        <v>418</v>
+        <v>997</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3961,10 +6223,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>408</v>
+        <v>609</v>
       </c>
       <c r="C211" t="s">
-        <v>418</v>
+        <v>998</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3972,10 +6234,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>610</v>
       </c>
       <c r="C212" t="s">
-        <v>418</v>
+        <v>999</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3983,10 +6245,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>408</v>
+        <v>611</v>
       </c>
       <c r="C213" t="s">
-        <v>418</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3994,10 +6256,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>408</v>
+        <v>612</v>
       </c>
       <c r="C214" t="s">
-        <v>418</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4005,10 +6267,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>408</v>
+        <v>613</v>
       </c>
       <c r="C215" t="s">
-        <v>418</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4016,10 +6278,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>408</v>
+        <v>614</v>
       </c>
       <c r="C216" t="s">
-        <v>418</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4027,10 +6289,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>408</v>
+        <v>615</v>
       </c>
       <c r="C217" t="s">
-        <v>418</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4038,10 +6300,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>408</v>
+        <v>616</v>
       </c>
       <c r="C218" t="s">
-        <v>418</v>
+        <v>963</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4049,10 +6311,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>408</v>
+        <v>617</v>
       </c>
       <c r="C219" t="s">
-        <v>418</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4060,10 +6322,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>408</v>
+        <v>618</v>
       </c>
       <c r="C220" t="s">
-        <v>418</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4071,10 +6333,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>408</v>
+        <v>619</v>
       </c>
       <c r="C221" t="s">
-        <v>418</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4082,10 +6344,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>408</v>
+        <v>620</v>
       </c>
       <c r="C222" t="s">
-        <v>418</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4093,10 +6355,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>408</v>
+        <v>621</v>
       </c>
       <c r="C223" t="s">
-        <v>418</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4104,10 +6366,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>408</v>
+        <v>622</v>
       </c>
       <c r="C224" t="s">
-        <v>418</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4115,10 +6377,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>408</v>
+        <v>623</v>
       </c>
       <c r="C225" t="s">
-        <v>418</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4126,10 +6388,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>408</v>
+        <v>624</v>
       </c>
       <c r="C226" t="s">
-        <v>418</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4137,10 +6399,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>408</v>
+        <v>625</v>
       </c>
       <c r="C227" t="s">
-        <v>418</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4148,10 +6410,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>408</v>
+        <v>626</v>
       </c>
       <c r="C228" t="s">
-        <v>418</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4159,10 +6421,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>408</v>
+        <v>627</v>
       </c>
       <c r="C229" t="s">
-        <v>418</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4170,10 +6432,10 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>408</v>
+        <v>628</v>
       </c>
       <c r="C230" t="s">
-        <v>418</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4181,10 +6443,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>408</v>
+        <v>629</v>
       </c>
       <c r="C231" t="s">
-        <v>418</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4192,10 +6454,10 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>408</v>
+        <v>630</v>
       </c>
       <c r="C232" t="s">
-        <v>418</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4203,10 +6465,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>408</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>418</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4214,10 +6476,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>408</v>
+        <v>632</v>
       </c>
       <c r="C234" t="s">
-        <v>418</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4225,10 +6487,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>408</v>
+        <v>633</v>
       </c>
       <c r="C235" t="s">
-        <v>418</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4236,10 +6498,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="C236" t="s">
-        <v>418</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4247,10 +6509,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>408</v>
+        <v>635</v>
       </c>
       <c r="C237" t="s">
-        <v>418</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4258,10 +6520,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>408</v>
+        <v>636</v>
       </c>
       <c r="C238" t="s">
-        <v>418</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4269,10 +6531,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>408</v>
+        <v>637</v>
       </c>
       <c r="C239" t="s">
-        <v>418</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4280,10 +6542,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>408</v>
+        <v>638</v>
       </c>
       <c r="C240" t="s">
-        <v>418</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4291,10 +6553,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>408</v>
+        <v>639</v>
       </c>
       <c r="C241" t="s">
-        <v>418</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4302,10 +6564,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>409</v>
+        <v>640</v>
       </c>
       <c r="C242" t="s">
-        <v>419</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4313,10 +6575,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>409</v>
+        <v>641</v>
       </c>
       <c r="C243" t="s">
-        <v>419</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4324,10 +6586,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>409</v>
+        <v>642</v>
       </c>
       <c r="C244" t="s">
-        <v>419</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4335,10 +6597,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>409</v>
+        <v>643</v>
       </c>
       <c r="C245" t="s">
-        <v>419</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4346,10 +6608,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>409</v>
+        <v>644</v>
       </c>
       <c r="C246" t="s">
-        <v>419</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4357,10 +6619,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>409</v>
+        <v>645</v>
       </c>
       <c r="C247" t="s">
-        <v>419</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4368,10 +6630,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>409</v>
+        <v>646</v>
       </c>
       <c r="C248" t="s">
-        <v>419</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4379,10 +6641,10 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>409</v>
+        <v>647</v>
       </c>
       <c r="C249" t="s">
-        <v>419</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4390,10 +6652,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>409</v>
+        <v>648</v>
       </c>
       <c r="C250" t="s">
-        <v>419</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4401,10 +6663,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>409</v>
+        <v>649</v>
       </c>
       <c r="C251" t="s">
-        <v>419</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4412,10 +6674,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>409</v>
+        <v>650</v>
       </c>
       <c r="C252" t="s">
-        <v>419</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4423,10 +6685,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>409</v>
+        <v>651</v>
       </c>
       <c r="C253" t="s">
-        <v>419</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4434,10 +6696,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>409</v>
+        <v>652</v>
       </c>
       <c r="C254" t="s">
-        <v>419</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4445,10 +6707,10 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>409</v>
+        <v>653</v>
       </c>
       <c r="C255" t="s">
-        <v>419</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4456,10 +6718,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>409</v>
+        <v>654</v>
       </c>
       <c r="C256" t="s">
-        <v>419</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4467,10 +6729,10 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>409</v>
+        <v>655</v>
       </c>
       <c r="C257" t="s">
-        <v>419</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4478,10 +6740,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>409</v>
+        <v>656</v>
       </c>
       <c r="C258" t="s">
-        <v>419</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4489,10 +6751,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>409</v>
+        <v>657</v>
       </c>
       <c r="C259" t="s">
-        <v>419</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4500,10 +6762,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>409</v>
+        <v>658</v>
       </c>
       <c r="C260" t="s">
-        <v>419</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4511,10 +6773,10 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>409</v>
+        <v>659</v>
       </c>
       <c r="C261" t="s">
-        <v>419</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4522,10 +6784,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>409</v>
+        <v>660</v>
       </c>
       <c r="C262" t="s">
-        <v>419</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4533,10 +6795,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>409</v>
+        <v>661</v>
       </c>
       <c r="C263" t="s">
-        <v>419</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4544,10 +6806,10 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>409</v>
+        <v>662</v>
       </c>
       <c r="C264" t="s">
-        <v>419</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4555,10 +6817,10 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>409</v>
+        <v>663</v>
       </c>
       <c r="C265" t="s">
-        <v>419</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4566,10 +6828,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>409</v>
+        <v>664</v>
       </c>
       <c r="C266" t="s">
-        <v>419</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4577,10 +6839,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>409</v>
+        <v>665</v>
       </c>
       <c r="C267" t="s">
-        <v>419</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4588,10 +6850,10 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>409</v>
+        <v>666</v>
       </c>
       <c r="C268" t="s">
-        <v>419</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4599,10 +6861,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>409</v>
+        <v>667</v>
       </c>
       <c r="C269" t="s">
-        <v>419</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4610,10 +6872,10 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>409</v>
+        <v>668</v>
       </c>
       <c r="C270" t="s">
-        <v>419</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4621,10 +6883,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>409</v>
+        <v>669</v>
       </c>
       <c r="C271" t="s">
-        <v>419</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4632,10 +6894,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>409</v>
+        <v>670</v>
       </c>
       <c r="C272" t="s">
-        <v>419</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4643,10 +6905,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>409</v>
+        <v>671</v>
       </c>
       <c r="C273" t="s">
-        <v>419</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4654,10 +6916,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>409</v>
+        <v>672</v>
       </c>
       <c r="C274" t="s">
-        <v>419</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4665,10 +6927,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>409</v>
+        <v>673</v>
       </c>
       <c r="C275" t="s">
-        <v>419</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4676,10 +6938,10 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>409</v>
+        <v>635</v>
       </c>
       <c r="C276" t="s">
-        <v>419</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4687,10 +6949,10 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>409</v>
+        <v>674</v>
       </c>
       <c r="C277" t="s">
-        <v>419</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4698,10 +6960,10 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>409</v>
+        <v>675</v>
       </c>
       <c r="C278" t="s">
-        <v>419</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4709,10 +6971,10 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>409</v>
+        <v>676</v>
       </c>
       <c r="C279" t="s">
-        <v>419</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4720,10 +6982,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>409</v>
+        <v>677</v>
       </c>
       <c r="C280" t="s">
-        <v>419</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4731,10 +6993,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>409</v>
+        <v>678</v>
       </c>
       <c r="C281" t="s">
-        <v>419</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4742,10 +7004,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>410</v>
+        <v>679</v>
       </c>
       <c r="C282" t="s">
-        <v>420</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4753,10 +7015,10 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>410</v>
+        <v>680</v>
       </c>
       <c r="C283" t="s">
-        <v>420</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4764,10 +7026,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>410</v>
+        <v>681</v>
       </c>
       <c r="C284" t="s">
-        <v>420</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4775,10 +7037,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>410</v>
+        <v>682</v>
       </c>
       <c r="C285" t="s">
-        <v>420</v>
+        <v>872</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4786,10 +7048,10 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>410</v>
+        <v>683</v>
       </c>
       <c r="C286" t="s">
-        <v>420</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4797,10 +7059,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>410</v>
+        <v>684</v>
       </c>
       <c r="C287" t="s">
-        <v>420</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4808,10 +7070,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="C288" t="s">
-        <v>420</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4819,10 +7081,10 @@
         <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>410</v>
+        <v>686</v>
       </c>
       <c r="C289" t="s">
-        <v>420</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4830,10 +7092,10 @@
         <v>291</v>
       </c>
       <c r="B290" t="s">
-        <v>410</v>
+        <v>687</v>
       </c>
       <c r="C290" t="s">
-        <v>420</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4841,10 +7103,10 @@
         <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>410</v>
+        <v>688</v>
       </c>
       <c r="C291" t="s">
-        <v>420</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4852,10 +7114,10 @@
         <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="C292" t="s">
-        <v>420</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4863,10 +7125,10 @@
         <v>294</v>
       </c>
       <c r="B293" t="s">
-        <v>410</v>
+        <v>689</v>
       </c>
       <c r="C293" t="s">
-        <v>420</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4874,10 +7136,10 @@
         <v>295</v>
       </c>
       <c r="B294" t="s">
-        <v>410</v>
+        <v>690</v>
       </c>
       <c r="C294" t="s">
-        <v>420</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4885,10 +7147,10 @@
         <v>296</v>
       </c>
       <c r="B295" t="s">
-        <v>410</v>
+        <v>691</v>
       </c>
       <c r="C295" t="s">
-        <v>420</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4896,10 +7158,10 @@
         <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>410</v>
+        <v>692</v>
       </c>
       <c r="C296" t="s">
-        <v>420</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4907,10 +7169,10 @@
         <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>693</v>
       </c>
       <c r="C297" t="s">
-        <v>420</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4918,10 +7180,10 @@
         <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>410</v>
+        <v>694</v>
       </c>
       <c r="C298" t="s">
-        <v>420</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4929,10 +7191,10 @@
         <v>300</v>
       </c>
       <c r="B299" t="s">
-        <v>410</v>
+        <v>695</v>
       </c>
       <c r="C299" t="s">
-        <v>420</v>
+        <v>973</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4940,10 +7202,10 @@
         <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>410</v>
+        <v>696</v>
       </c>
       <c r="C300" t="s">
-        <v>420</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4951,10 +7213,10 @@
         <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>410</v>
+        <v>697</v>
       </c>
       <c r="C301" t="s">
-        <v>420</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4962,10 +7224,10 @@
         <v>303</v>
       </c>
       <c r="B302" t="s">
-        <v>410</v>
+        <v>698</v>
       </c>
       <c r="C302" t="s">
-        <v>420</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4973,10 +7235,10 @@
         <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>410</v>
+        <v>699</v>
       </c>
       <c r="C303" t="s">
-        <v>420</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4984,10 +7246,10 @@
         <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>410</v>
+        <v>700</v>
       </c>
       <c r="C304" t="s">
-        <v>420</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4995,10 +7257,10 @@
         <v>306</v>
       </c>
       <c r="B305" t="s">
-        <v>410</v>
+        <v>701</v>
       </c>
       <c r="C305" t="s">
-        <v>420</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5006,10 +7268,10 @@
         <v>307</v>
       </c>
       <c r="B306" t="s">
-        <v>410</v>
+        <v>702</v>
       </c>
       <c r="C306" t="s">
-        <v>420</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5017,10 +7279,10 @@
         <v>308</v>
       </c>
       <c r="B307" t="s">
-        <v>410</v>
+        <v>703</v>
       </c>
       <c r="C307" t="s">
-        <v>420</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5028,10 +7290,10 @@
         <v>309</v>
       </c>
       <c r="B308" t="s">
-        <v>410</v>
+        <v>704</v>
       </c>
       <c r="C308" t="s">
-        <v>420</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5039,10 +7301,10 @@
         <v>310</v>
       </c>
       <c r="B309" t="s">
-        <v>410</v>
+        <v>705</v>
       </c>
       <c r="C309" t="s">
-        <v>420</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5050,10 +7312,10 @@
         <v>311</v>
       </c>
       <c r="B310" t="s">
-        <v>410</v>
+        <v>706</v>
       </c>
       <c r="C310" t="s">
-        <v>420</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5061,10 +7323,10 @@
         <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>410</v>
+        <v>707</v>
       </c>
       <c r="C311" t="s">
-        <v>420</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5072,10 +7334,10 @@
         <v>313</v>
       </c>
       <c r="B312" t="s">
-        <v>410</v>
+        <v>708</v>
       </c>
       <c r="C312" t="s">
-        <v>420</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5083,10 +7345,10 @@
         <v>314</v>
       </c>
       <c r="B313" t="s">
-        <v>410</v>
+        <v>709</v>
       </c>
       <c r="C313" t="s">
-        <v>420</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5094,10 +7356,10 @@
         <v>315</v>
       </c>
       <c r="B314" t="s">
-        <v>410</v>
+        <v>710</v>
       </c>
       <c r="C314" t="s">
-        <v>420</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5105,10 +7367,10 @@
         <v>316</v>
       </c>
       <c r="B315" t="s">
-        <v>410</v>
+        <v>711</v>
       </c>
       <c r="C315" t="s">
-        <v>420</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5116,10 +7378,10 @@
         <v>317</v>
       </c>
       <c r="B316" t="s">
-        <v>410</v>
+        <v>712</v>
       </c>
       <c r="C316" t="s">
-        <v>420</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5127,10 +7389,10 @@
         <v>318</v>
       </c>
       <c r="B317" t="s">
-        <v>410</v>
+        <v>713</v>
       </c>
       <c r="C317" t="s">
-        <v>420</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5138,10 +7400,10 @@
         <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>410</v>
+        <v>714</v>
       </c>
       <c r="C318" t="s">
-        <v>420</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5149,10 +7411,10 @@
         <v>320</v>
       </c>
       <c r="B319" t="s">
-        <v>410</v>
+        <v>715</v>
       </c>
       <c r="C319" t="s">
-        <v>420</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5160,10 +7422,10 @@
         <v>321</v>
       </c>
       <c r="B320" t="s">
-        <v>410</v>
+        <v>716</v>
       </c>
       <c r="C320" t="s">
-        <v>420</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5171,10 +7433,10 @@
         <v>322</v>
       </c>
       <c r="B321" t="s">
-        <v>410</v>
+        <v>717</v>
       </c>
       <c r="C321" t="s">
-        <v>420</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5182,10 +7444,10 @@
         <v>323</v>
       </c>
       <c r="B322" t="s">
-        <v>411</v>
+        <v>718</v>
       </c>
       <c r="C322" t="s">
-        <v>421</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5193,10 +7455,10 @@
         <v>324</v>
       </c>
       <c r="B323" t="s">
-        <v>411</v>
+        <v>719</v>
       </c>
       <c r="C323" t="s">
-        <v>421</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5204,10 +7466,10 @@
         <v>325</v>
       </c>
       <c r="B324" t="s">
-        <v>411</v>
+        <v>720</v>
       </c>
       <c r="C324" t="s">
-        <v>421</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5215,10 +7477,10 @@
         <v>326</v>
       </c>
       <c r="B325" t="s">
-        <v>411</v>
+        <v>721</v>
       </c>
       <c r="C325" t="s">
-        <v>421</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5226,10 +7488,10 @@
         <v>327</v>
       </c>
       <c r="B326" t="s">
-        <v>411</v>
+        <v>722</v>
       </c>
       <c r="C326" t="s">
-        <v>421</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5237,10 +7499,10 @@
         <v>328</v>
       </c>
       <c r="B327" t="s">
-        <v>411</v>
+        <v>723</v>
       </c>
       <c r="C327" t="s">
-        <v>421</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5248,10 +7510,10 @@
         <v>329</v>
       </c>
       <c r="B328" t="s">
-        <v>411</v>
+        <v>724</v>
       </c>
       <c r="C328" t="s">
-        <v>421</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5259,10 +7521,10 @@
         <v>330</v>
       </c>
       <c r="B329" t="s">
-        <v>411</v>
+        <v>725</v>
       </c>
       <c r="C329" t="s">
-        <v>421</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5270,10 +7532,10 @@
         <v>331</v>
       </c>
       <c r="B330" t="s">
-        <v>411</v>
+        <v>726</v>
       </c>
       <c r="C330" t="s">
-        <v>421</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5281,10 +7543,10 @@
         <v>332</v>
       </c>
       <c r="B331" t="s">
-        <v>411</v>
+        <v>727</v>
       </c>
       <c r="C331" t="s">
-        <v>421</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5292,10 +7554,10 @@
         <v>333</v>
       </c>
       <c r="B332" t="s">
-        <v>411</v>
+        <v>728</v>
       </c>
       <c r="C332" t="s">
-        <v>421</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5303,10 +7565,10 @@
         <v>334</v>
       </c>
       <c r="B333" t="s">
-        <v>411</v>
+        <v>729</v>
       </c>
       <c r="C333" t="s">
-        <v>421</v>
+        <v>932</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5314,10 +7576,10 @@
         <v>335</v>
       </c>
       <c r="B334" t="s">
-        <v>411</v>
+        <v>730</v>
       </c>
       <c r="C334" t="s">
-        <v>421</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5325,10 +7587,10 @@
         <v>336</v>
       </c>
       <c r="B335" t="s">
-        <v>411</v>
+        <v>731</v>
       </c>
       <c r="C335" t="s">
-        <v>421</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5336,10 +7598,10 @@
         <v>337</v>
       </c>
       <c r="B336" t="s">
-        <v>411</v>
+        <v>732</v>
       </c>
       <c r="C336" t="s">
-        <v>421</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5347,10 +7609,10 @@
         <v>338</v>
       </c>
       <c r="B337" t="s">
-        <v>411</v>
+        <v>733</v>
       </c>
       <c r="C337" t="s">
-        <v>421</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5358,10 +7620,10 @@
         <v>339</v>
       </c>
       <c r="B338" t="s">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="C338" t="s">
-        <v>421</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5369,10 +7631,10 @@
         <v>340</v>
       </c>
       <c r="B339" t="s">
-        <v>411</v>
+        <v>735</v>
       </c>
       <c r="C339" t="s">
-        <v>421</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5380,10 +7642,10 @@
         <v>341</v>
       </c>
       <c r="B340" t="s">
-        <v>411</v>
+        <v>736</v>
       </c>
       <c r="C340" t="s">
-        <v>421</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5391,10 +7653,10 @@
         <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>411</v>
+        <v>737</v>
       </c>
       <c r="C341" t="s">
-        <v>421</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5402,10 +7664,10 @@
         <v>343</v>
       </c>
       <c r="B342" t="s">
-        <v>411</v>
+        <v>738</v>
       </c>
       <c r="C342" t="s">
-        <v>421</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5413,10 +7675,10 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>411</v>
+        <v>739</v>
       </c>
       <c r="C343" t="s">
-        <v>421</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5424,10 +7686,10 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>411</v>
+        <v>740</v>
       </c>
       <c r="C344" t="s">
-        <v>421</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5435,10 +7697,10 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>411</v>
+        <v>741</v>
       </c>
       <c r="C345" t="s">
-        <v>421</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5446,10 +7708,10 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>411</v>
+        <v>742</v>
       </c>
       <c r="C346" t="s">
-        <v>421</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5457,10 +7719,10 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>411</v>
+        <v>743</v>
       </c>
       <c r="C347" t="s">
-        <v>421</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5468,10 +7730,10 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>411</v>
+        <v>744</v>
       </c>
       <c r="C348" t="s">
-        <v>421</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5479,10 +7741,10 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>411</v>
+        <v>745</v>
       </c>
       <c r="C349" t="s">
-        <v>421</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5490,10 +7752,10 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>411</v>
+        <v>746</v>
       </c>
       <c r="C350" t="s">
-        <v>421</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5501,10 +7763,10 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>411</v>
+        <v>747</v>
       </c>
       <c r="C351" t="s">
-        <v>421</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5512,10 +7774,10 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>411</v>
+        <v>748</v>
       </c>
       <c r="C352" t="s">
-        <v>421</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5523,10 +7785,10 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>411</v>
+        <v>749</v>
       </c>
       <c r="C353" t="s">
-        <v>421</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5534,10 +7796,10 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>411</v>
+        <v>750</v>
       </c>
       <c r="C354" t="s">
-        <v>421</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5545,10 +7807,10 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>411</v>
+        <v>751</v>
       </c>
       <c r="C355" t="s">
-        <v>421</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5556,10 +7818,10 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>411</v>
+        <v>752</v>
       </c>
       <c r="C356" t="s">
-        <v>421</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5567,10 +7829,10 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>411</v>
+        <v>753</v>
       </c>
       <c r="C357" t="s">
-        <v>421</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5578,10 +7840,10 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>411</v>
+        <v>754</v>
       </c>
       <c r="C358" t="s">
-        <v>421</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5589,10 +7851,10 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>411</v>
+        <v>755</v>
       </c>
       <c r="C359" t="s">
-        <v>421</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5600,10 +7862,10 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="C360" t="s">
-        <v>421</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5611,10 +7873,10 @@
         <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>411</v>
+        <v>595</v>
       </c>
       <c r="C361" t="s">
-        <v>421</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5622,10 +7884,10 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>412</v>
+        <v>757</v>
       </c>
       <c r="C362" t="s">
-        <v>422</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5633,10 +7895,10 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>412</v>
+        <v>758</v>
       </c>
       <c r="C363" t="s">
-        <v>422</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5644,10 +7906,10 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>412</v>
+        <v>759</v>
       </c>
       <c r="C364" t="s">
-        <v>422</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5655,10 +7917,10 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>412</v>
+        <v>760</v>
       </c>
       <c r="C365" t="s">
-        <v>422</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5666,10 +7928,10 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>412</v>
+        <v>761</v>
       </c>
       <c r="C366" t="s">
-        <v>422</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5677,10 +7939,10 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>412</v>
+        <v>762</v>
       </c>
       <c r="C367" t="s">
-        <v>422</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5688,10 +7950,10 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>412</v>
+        <v>763</v>
       </c>
       <c r="C368" t="s">
-        <v>422</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5699,10 +7961,10 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>412</v>
+        <v>764</v>
       </c>
       <c r="C369" t="s">
-        <v>422</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5710,10 +7972,10 @@
         <v>371</v>
       </c>
       <c r="B370" t="s">
-        <v>412</v>
+        <v>765</v>
       </c>
       <c r="C370" t="s">
-        <v>422</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5721,10 +7983,10 @@
         <v>372</v>
       </c>
       <c r="B371" t="s">
-        <v>412</v>
+        <v>766</v>
       </c>
       <c r="C371" t="s">
-        <v>422</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5732,10 +7994,10 @@
         <v>373</v>
       </c>
       <c r="B372" t="s">
-        <v>412</v>
+        <v>767</v>
       </c>
       <c r="C372" t="s">
-        <v>422</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5743,10 +8005,10 @@
         <v>374</v>
       </c>
       <c r="B373" t="s">
-        <v>412</v>
+        <v>768</v>
       </c>
       <c r="C373" t="s">
-        <v>422</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5754,10 +8016,10 @@
         <v>375</v>
       </c>
       <c r="B374" t="s">
-        <v>412</v>
+        <v>769</v>
       </c>
       <c r="C374" t="s">
-        <v>422</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5765,10 +8027,10 @@
         <v>376</v>
       </c>
       <c r="B375" t="s">
-        <v>412</v>
+        <v>770</v>
       </c>
       <c r="C375" t="s">
-        <v>422</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5776,10 +8038,10 @@
         <v>377</v>
       </c>
       <c r="B376" t="s">
-        <v>412</v>
+        <v>771</v>
       </c>
       <c r="C376" t="s">
-        <v>422</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5787,10 +8049,10 @@
         <v>378</v>
       </c>
       <c r="B377" t="s">
-        <v>412</v>
+        <v>772</v>
       </c>
       <c r="C377" t="s">
-        <v>422</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5798,10 +8060,10 @@
         <v>379</v>
       </c>
       <c r="B378" t="s">
-        <v>412</v>
+        <v>773</v>
       </c>
       <c r="C378" t="s">
-        <v>422</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5809,10 +8071,10 @@
         <v>380</v>
       </c>
       <c r="B379" t="s">
-        <v>412</v>
+        <v>774</v>
       </c>
       <c r="C379" t="s">
-        <v>422</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5820,10 +8082,10 @@
         <v>381</v>
       </c>
       <c r="B380" t="s">
-        <v>412</v>
+        <v>775</v>
       </c>
       <c r="C380" t="s">
-        <v>422</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5831,10 +8093,10 @@
         <v>382</v>
       </c>
       <c r="B381" t="s">
-        <v>412</v>
+        <v>776</v>
       </c>
       <c r="C381" t="s">
-        <v>422</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -5842,10 +8104,10 @@
         <v>383</v>
       </c>
       <c r="B382" t="s">
-        <v>412</v>
+        <v>777</v>
       </c>
       <c r="C382" t="s">
-        <v>422</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -5853,10 +8115,10 @@
         <v>384</v>
       </c>
       <c r="B383" t="s">
-        <v>412</v>
+        <v>778</v>
       </c>
       <c r="C383" t="s">
-        <v>422</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -5864,10 +8126,10 @@
         <v>385</v>
       </c>
       <c r="B384" t="s">
-        <v>412</v>
+        <v>779</v>
       </c>
       <c r="C384" t="s">
-        <v>422</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -5875,10 +8137,10 @@
         <v>386</v>
       </c>
       <c r="B385" t="s">
-        <v>412</v>
+        <v>780</v>
       </c>
       <c r="C385" t="s">
-        <v>422</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -5886,10 +8148,10 @@
         <v>387</v>
       </c>
       <c r="B386" t="s">
-        <v>412</v>
+        <v>781</v>
       </c>
       <c r="C386" t="s">
-        <v>422</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -5897,10 +8159,10 @@
         <v>388</v>
       </c>
       <c r="B387" t="s">
-        <v>412</v>
+        <v>782</v>
       </c>
       <c r="C387" t="s">
-        <v>422</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -5908,10 +8170,10 @@
         <v>389</v>
       </c>
       <c r="B388" t="s">
-        <v>412</v>
+        <v>783</v>
       </c>
       <c r="C388" t="s">
-        <v>422</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5919,10 +8181,10 @@
         <v>390</v>
       </c>
       <c r="B389" t="s">
-        <v>412</v>
+        <v>784</v>
       </c>
       <c r="C389" t="s">
-        <v>422</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -5930,10 +8192,10 @@
         <v>391</v>
       </c>
       <c r="B390" t="s">
-        <v>412</v>
+        <v>785</v>
       </c>
       <c r="C390" t="s">
-        <v>422</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -5941,10 +8203,10 @@
         <v>392</v>
       </c>
       <c r="B391" t="s">
-        <v>412</v>
+        <v>786</v>
       </c>
       <c r="C391" t="s">
-        <v>422</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -5952,10 +8214,10 @@
         <v>393</v>
       </c>
       <c r="B392" t="s">
-        <v>412</v>
+        <v>787</v>
       </c>
       <c r="C392" t="s">
-        <v>422</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -5963,10 +8225,10 @@
         <v>394</v>
       </c>
       <c r="B393" t="s">
-        <v>412</v>
+        <v>788</v>
       </c>
       <c r="C393" t="s">
-        <v>422</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -5974,10 +8236,10 @@
         <v>395</v>
       </c>
       <c r="B394" t="s">
-        <v>412</v>
+        <v>789</v>
       </c>
       <c r="C394" t="s">
-        <v>422</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -5985,10 +8247,10 @@
         <v>396</v>
       </c>
       <c r="B395" t="s">
-        <v>412</v>
+        <v>790</v>
       </c>
       <c r="C395" t="s">
-        <v>422</v>
+        <v>887</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -5996,10 +8258,10 @@
         <v>397</v>
       </c>
       <c r="B396" t="s">
-        <v>412</v>
+        <v>791</v>
       </c>
       <c r="C396" t="s">
-        <v>422</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6007,10 +8269,10 @@
         <v>398</v>
       </c>
       <c r="B397" t="s">
-        <v>412</v>
+        <v>792</v>
       </c>
       <c r="C397" t="s">
-        <v>422</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6018,10 +8280,10 @@
         <v>399</v>
       </c>
       <c r="B398" t="s">
-        <v>412</v>
+        <v>793</v>
       </c>
       <c r="C398" t="s">
-        <v>422</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6029,10 +8291,10 @@
         <v>400</v>
       </c>
       <c r="B399" t="s">
-        <v>412</v>
+        <v>794</v>
       </c>
       <c r="C399" t="s">
-        <v>422</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6040,10 +8302,10 @@
         <v>401</v>
       </c>
       <c r="B400" t="s">
-        <v>412</v>
+        <v>795</v>
       </c>
       <c r="C400" t="s">
-        <v>422</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6051,10 +8313,10 @@
         <v>402</v>
       </c>
       <c r="B401" t="s">
-        <v>412</v>
+        <v>796</v>
       </c>
       <c r="C401" t="s">
-        <v>422</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
